--- a/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.50342019601196</v>
+        <v>21.50342019601201</v>
       </c>
       <c r="C2">
-        <v>11.30376430923715</v>
+        <v>11.30376430923735</v>
       </c>
       <c r="D2">
-        <v>3.04437152423041</v>
+        <v>3.044371524230343</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.57128338738377</v>
+        <v>27.57128338738375</v>
       </c>
       <c r="G2">
-        <v>21.02293864212988</v>
+        <v>21.02293864212981</v>
       </c>
       <c r="H2">
-        <v>17.88793823972859</v>
+        <v>17.8879382397285</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.86219631210962</v>
+        <v>17.86219631210973</v>
       </c>
       <c r="K2">
-        <v>30.01127244209505</v>
+        <v>30.01127244209513</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,28 +453,28 @@
         <v>20.02148666199334</v>
       </c>
       <c r="C3">
-        <v>10.59696090452962</v>
+        <v>10.59696090452955</v>
       </c>
       <c r="D3">
-        <v>3.142747799840645</v>
+        <v>3.14274779984071</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.22744487847339</v>
+        <v>26.22744487847342</v>
       </c>
       <c r="G3">
-        <v>20.18306403672697</v>
+        <v>20.183064036727</v>
       </c>
       <c r="H3">
-        <v>17.43647418485725</v>
+        <v>17.43647418485726</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16.69376163056996</v>
+        <v>16.69376163056993</v>
       </c>
       <c r="K3">
         <v>27.74458120478821</v>
@@ -491,31 +491,31 @@
         <v>19.06421798925827</v>
       </c>
       <c r="C4">
-        <v>10.14033226716558</v>
+        <v>10.1403322671653</v>
       </c>
       <c r="D4">
-        <v>3.202713052116472</v>
+        <v>3.202713052116674</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.40735972148709</v>
+        <v>25.4073597214872</v>
       </c>
       <c r="G4">
-        <v>19.68120316004368</v>
+        <v>19.68120316004382</v>
       </c>
       <c r="H4">
-        <v>17.18107155704864</v>
+        <v>17.18107155704873</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.93995964444459</v>
+        <v>15.93995964444454</v>
       </c>
       <c r="K4">
-        <v>26.29762340501025</v>
+        <v>26.29762340501021</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66203181370211</v>
+        <v>18.66203181370212</v>
       </c>
       <c r="C5">
-        <v>9.948542448860421</v>
+        <v>9.94854244886041</v>
       </c>
       <c r="D5">
-        <v>3.227088925154169</v>
+        <v>3.22708892515437</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.07470277128321</v>
+        <v>25.07470277128319</v>
       </c>
       <c r="G5">
-        <v>19.48024377639931</v>
+        <v>19.48024377639933</v>
       </c>
       <c r="H5">
         <v>17.08228559981011</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.62353689884464</v>
+        <v>15.62353689884463</v>
       </c>
       <c r="K5">
-        <v>25.69348010403492</v>
+        <v>25.69348010403496</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59451374983792</v>
+        <v>18.59451374983799</v>
       </c>
       <c r="C6">
-        <v>9.91635084190735</v>
+        <v>9.916350841907187</v>
       </c>
       <c r="D6">
-        <v>3.231134226677546</v>
+        <v>3.231134226677614</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.01956719201841</v>
+        <v>25.01956719201843</v>
       </c>
       <c r="G6">
-        <v>19.44709184657354</v>
+        <v>19.44709184657355</v>
       </c>
       <c r="H6">
-        <v>17.06619627700137</v>
+        <v>17.0661962770013</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.0588431550097</v>
+        <v>19.05884315500989</v>
       </c>
       <c r="C7">
-        <v>10.13776885255278</v>
+        <v>10.13776885255264</v>
       </c>
       <c r="D7">
-        <v>3.203041976413427</v>
+        <v>3.203041976413226</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.40286677513119</v>
+        <v>25.4028667751311</v>
       </c>
       <c r="G7">
-        <v>19.67847844883363</v>
+        <v>19.67847844883351</v>
       </c>
       <c r="H7">
-        <v>17.17971811933988</v>
+        <v>17.17971811933971</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.93572978899869</v>
+        <v>15.93572978899878</v>
       </c>
       <c r="K7">
-        <v>26.2895351810993</v>
+        <v>26.28953518109927</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.00216245079332</v>
+        <v>21.00216245079337</v>
       </c>
       <c r="C8">
-        <v>11.06474645740191</v>
+        <v>11.0647464574019</v>
       </c>
       <c r="D8">
         <v>3.078414235488883</v>
@@ -652,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.10701964272699</v>
+        <v>27.107019642727</v>
       </c>
       <c r="G8">
-        <v>20.73051813542221</v>
+        <v>20.7305181354222</v>
       </c>
       <c r="H8">
-        <v>17.72763709848511</v>
+        <v>17.72763709848509</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17.46680692712274</v>
+        <v>17.46680692712277</v>
       </c>
       <c r="K8">
         <v>29.24078264435489</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.44649047603617</v>
+        <v>24.4464904760362</v>
       </c>
       <c r="C9">
         <v>12.70413906181558</v>
       </c>
       <c r="D9">
-        <v>2.827981164599637</v>
+        <v>2.827981164599504</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.48144413498746</v>
+        <v>30.48144413498737</v>
       </c>
       <c r="G9">
-        <v>22.90172601732003</v>
+        <v>22.90172601731993</v>
       </c>
       <c r="H9">
-        <v>18.98354078335923</v>
+        <v>18.98354078335913</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20.18598464945959</v>
+        <v>20.18598464945964</v>
       </c>
       <c r="K9">
-        <v>34.6219203247935</v>
+        <v>34.62192032479343</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.76814907194468</v>
+        <v>26.76814907194469</v>
       </c>
       <c r="C10">
-        <v>13.80242308979228</v>
+        <v>13.80242308979213</v>
       </c>
       <c r="D10">
-        <v>2.636139833486285</v>
+        <v>2.636139833486355</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.97806781433618</v>
+        <v>32.97806781433613</v>
       </c>
       <c r="G10">
-        <v>24.56471665446188</v>
+        <v>24.56471665446184</v>
       </c>
       <c r="H10">
-        <v>20.0295239049473</v>
+        <v>20.02952390494726</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.02026278727589</v>
+        <v>22.02026278727583</v>
       </c>
       <c r="K10">
-        <v>38.37975891296312</v>
+        <v>38.37975891296308</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.78278748729587</v>
+        <v>27.78278748729584</v>
       </c>
       <c r="C11">
-        <v>14.27976101453626</v>
+        <v>14.27976101453627</v>
       </c>
       <c r="D11">
-        <v>2.546021018480737</v>
+        <v>2.546021018480739</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.11951185816208</v>
+        <v>34.11951185816203</v>
       </c>
       <c r="G11">
-        <v>25.33781097138464</v>
+        <v>25.33781097138462</v>
       </c>
       <c r="H11">
-        <v>20.53546770298423</v>
+        <v>20.53546770298422</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.82176891458531</v>
+        <v>22.82176891458528</v>
       </c>
       <c r="K11">
-        <v>40.06127312343158</v>
+        <v>40.06127312343148</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>28.161412647391</v>
       </c>
       <c r="C12">
-        <v>14.45738620649394</v>
+        <v>14.45738620649385</v>
       </c>
       <c r="D12">
-        <v>2.511369173252531</v>
+        <v>2.5113691732526</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.5529045530056</v>
+        <v>34.55290455300561</v>
       </c>
       <c r="G12">
-        <v>25.63322059279618</v>
+        <v>25.6332205927962</v>
       </c>
       <c r="H12">
-        <v>20.73173273257587</v>
+        <v>20.7317327325759</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23.12080084277789</v>
+        <v>23.12080084277784</v>
       </c>
       <c r="K12">
-        <v>40.69550714638201</v>
+        <v>40.69550714638195</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.08011129015809</v>
+        <v>28.08011129015818</v>
       </c>
       <c r="C13">
-        <v>14.41926952735378</v>
+        <v>14.41926952735388</v>
       </c>
       <c r="D13">
-        <v>2.518857535805283</v>
+        <v>2.51885753580515</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.45950744047928</v>
+        <v>34.45950744047926</v>
       </c>
       <c r="G13">
-        <v>25.56947519906786</v>
+        <v>25.56947519906782</v>
       </c>
       <c r="H13">
-        <v>20.68924929111467</v>
+        <v>20.68924929111464</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>23.05659377490671</v>
+        <v>23.05659377490682</v>
       </c>
       <c r="K13">
-        <v>40.55899825896398</v>
+        <v>40.55899825896417</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.81404702833812</v>
+        <v>27.81404702833814</v>
       </c>
       <c r="C14">
-        <v>14.29443668354877</v>
+        <v>14.29443668354875</v>
       </c>
       <c r="D14">
-        <v>2.54318147040677</v>
+        <v>2.54318147040717</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.15514177400463</v>
+        <v>34.15514177400462</v>
       </c>
       <c r="G14">
-        <v>25.36205932045462</v>
+        <v>25.36205932045463</v>
       </c>
       <c r="H14">
-        <v>20.55151859845359</v>
+        <v>20.55151859845362</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.84645865762911</v>
+        <v>22.84645865762909</v>
       </c>
       <c r="K14">
-        <v>40.11349271279476</v>
+        <v>40.1134927127948</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.65035819402692</v>
+        <v>27.65035819402696</v>
       </c>
       <c r="C15">
-        <v>14.21756730323218</v>
+        <v>14.21756730323207</v>
       </c>
       <c r="D15">
-        <v>2.558008295541676</v>
+        <v>2.558008295541612</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.9688716376502</v>
+        <v>33.96887163765019</v>
       </c>
       <c r="G15">
-        <v>25.23536690234611</v>
+        <v>25.23536690234607</v>
       </c>
       <c r="H15">
-        <v>20.46777494219777</v>
+        <v>20.4677749421977</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>22.71716949220878</v>
+        <v>22.71716949220877</v>
       </c>
       <c r="K15">
-        <v>39.8403294696973</v>
+        <v>39.84032946969747</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.70103542905522</v>
+        <v>26.70103542905517</v>
       </c>
       <c r="C16">
-        <v>13.77078553698697</v>
+        <v>13.77078553698682</v>
       </c>
       <c r="D16">
-        <v>2.641962525475224</v>
+        <v>2.641962525475158</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.90361151340612</v>
+        <v>32.90361151340617</v>
       </c>
       <c r="G16">
-        <v>24.51454750500526</v>
+        <v>24.5145475050053</v>
       </c>
       <c r="H16">
-        <v>19.99709307945226</v>
+        <v>19.99709307945229</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21.96724072401827</v>
+        <v>21.96724072401822</v>
       </c>
       <c r="K16">
-        <v>38.26942705405993</v>
+        <v>38.26942705405997</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.10827452341575</v>
+        <v>26.10827452341576</v>
       </c>
       <c r="C17">
-        <v>13.49104147570462</v>
+        <v>13.49104147570457</v>
       </c>
       <c r="D17">
-        <v>2.692659754522598</v>
+        <v>2.692659754522533</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.25176006244212</v>
+        <v>32.25176006244207</v>
       </c>
       <c r="G17">
-        <v>24.07675512664847</v>
+        <v>24.07675512664843</v>
       </c>
       <c r="H17">
-        <v>19.71628151964415</v>
+        <v>19.7162815196441</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>21.4989195825317</v>
+        <v>21.49891958253169</v>
       </c>
       <c r="K17">
-        <v>37.29954728749075</v>
+        <v>37.29954728749082</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,31 +1023,31 @@
         <v>25.76340308834322</v>
       </c>
       <c r="C18">
-        <v>13.32803845883255</v>
+        <v>13.32803845883254</v>
       </c>
       <c r="D18">
-        <v>2.721559332535095</v>
+        <v>2.721559332535026</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.87734184264159</v>
+        <v>31.87734184264157</v>
       </c>
       <c r="G18">
-        <v>23.82648792376729</v>
+        <v>23.82648792376727</v>
       </c>
       <c r="H18">
-        <v>19.55757693511918</v>
+        <v>19.55757693511917</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>21.22643802051024</v>
+        <v>21.22643802051023</v>
       </c>
       <c r="K18">
-        <v>36.73896240965912</v>
+        <v>36.73896240965905</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>25.64595001981803</v>
       </c>
       <c r="C19">
-        <v>13.27248546064031</v>
+        <v>13.27248546064021</v>
       </c>
       <c r="D19">
-        <v>2.731302760938724</v>
+        <v>2.731302760938655</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.75065021277533</v>
+        <v>31.75065021277529</v>
       </c>
       <c r="G19">
-        <v>23.74200971381005</v>
+        <v>23.74200971381006</v>
       </c>
       <c r="H19">
-        <v>19.50431576124365</v>
+        <v>19.50431576124371</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>21.13363832231071</v>
+        <v>21.13363832231068</v>
       </c>
       <c r="K19">
-        <v>36.54864721946179</v>
+        <v>36.54864721946171</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.17177928127821</v>
+        <v>26.17177928127833</v>
       </c>
       <c r="C20">
-        <v>13.52103773279106</v>
+        <v>13.52103773279099</v>
       </c>
       <c r="D20">
-        <v>2.687290644811283</v>
+        <v>2.687290644811216</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.32109613284559</v>
+        <v>32.32109613284565</v>
       </c>
       <c r="G20">
-        <v>24.1231979528067</v>
+        <v>24.12319795280673</v>
       </c>
       <c r="H20">
         <v>19.74588123165777</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>21.54909392985448</v>
+        <v>21.54909392985455</v>
       </c>
       <c r="K20">
-        <v>37.40306586822468</v>
+        <v>37.40306586822482</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.89234518119641</v>
+        <v>27.89234518119637</v>
       </c>
       <c r="C21">
-        <v>14.33118751539293</v>
+        <v>14.3311875153929</v>
       </c>
       <c r="D21">
-        <v>2.536052244255174</v>
+        <v>2.536052244255578</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.24450663938047</v>
+        <v>34.2445066393804</v>
       </c>
       <c r="G21">
-        <v>25.42290759668681</v>
+        <v>25.42290759668677</v>
       </c>
       <c r="H21">
-        <v>20.59184342831414</v>
+        <v>20.59184342831411</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.9082998222383</v>
+        <v>22.90829982223831</v>
       </c>
       <c r="K21">
-        <v>40.24440334242976</v>
+        <v>40.2444033424297</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.98443306253089</v>
+        <v>28.98443306253071</v>
       </c>
       <c r="C22">
         <v>14.84244894579668</v>
       </c>
       <c r="D22">
-        <v>2.434073878679043</v>
+        <v>2.434073878679046</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.61063785820075</v>
+        <v>35.61063785820057</v>
       </c>
       <c r="G22">
-        <v>26.32913483635525</v>
+        <v>26.32913483635511</v>
       </c>
       <c r="H22">
-        <v>21.17220037846847</v>
+        <v>21.17220037846843</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>23.77065081335837</v>
+        <v>23.77065081335828</v>
       </c>
       <c r="K22">
-        <v>42.08763965108711</v>
+        <v>42.087639651087</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.40439091774609</v>
+        <v>28.40439091774612</v>
       </c>
       <c r="C23">
-        <v>14.57122028493253</v>
+        <v>14.57122028493258</v>
       </c>
       <c r="D23">
-        <v>2.488832808429389</v>
+        <v>2.488832808429194</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.8620918020303</v>
+        <v>34.86209180203032</v>
       </c>
       <c r="G23">
         <v>25.82474384513981</v>
       </c>
       <c r="H23">
-        <v>20.85980379090193</v>
+        <v>20.85980379090194</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>23.3126787817546</v>
+        <v>23.31267878175465</v>
       </c>
       <c r="K23">
-        <v>41.1045452128741</v>
+        <v>41.10454521287416</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.14308153206314</v>
+        <v>26.14308153206327</v>
       </c>
       <c r="C24">
-        <v>13.50748320314359</v>
+        <v>13.50748320314365</v>
       </c>
       <c r="D24">
-        <v>2.689718780086036</v>
+        <v>2.689718780086104</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.28974825959896</v>
+        <v>32.28974825959895</v>
       </c>
       <c r="G24">
-        <v>24.10219672987563</v>
+        <v>24.10219672987559</v>
       </c>
       <c r="H24">
-        <v>19.73249069936747</v>
+        <v>19.73249069936742</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>21.52642020990139</v>
+        <v>21.52642020990149</v>
       </c>
       <c r="K24">
-        <v>37.35627453247978</v>
+        <v>37.35627453247969</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.55255106303298</v>
+        <v>23.55255106303301</v>
       </c>
       <c r="C25">
-        <v>12.27951020217104</v>
+        <v>12.27951020217112</v>
       </c>
       <c r="D25">
-        <v>2.896768906132724</v>
+        <v>2.896768906132659</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.56573057243072</v>
+        <v>29.56573057243078</v>
       </c>
       <c r="G25">
-        <v>22.3028022752261</v>
+        <v>22.30280227522611</v>
       </c>
       <c r="H25">
-        <v>18.6231268768815</v>
+        <v>18.62312687688146</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.47984645642489</v>
+        <v>19.47984645642494</v>
       </c>
       <c r="K25">
-        <v>33.20480079904767</v>
+        <v>33.20480079904768</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.50342019601201</v>
+        <v>21.50342019601196</v>
       </c>
       <c r="C2">
-        <v>11.30376430923735</v>
+        <v>11.30376430923715</v>
       </c>
       <c r="D2">
-        <v>3.044371524230343</v>
+        <v>3.04437152423041</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.57128338738375</v>
+        <v>27.57128338738377</v>
       </c>
       <c r="G2">
-        <v>21.02293864212981</v>
+        <v>21.02293864212988</v>
       </c>
       <c r="H2">
-        <v>17.8879382397285</v>
+        <v>17.88793823972859</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>17.86219631210973</v>
+        <v>17.86219631210962</v>
       </c>
       <c r="K2">
-        <v>30.01127244209513</v>
+        <v>30.01127244209505</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,28 +453,28 @@
         <v>20.02148666199334</v>
       </c>
       <c r="C3">
-        <v>10.59696090452955</v>
+        <v>10.59696090452962</v>
       </c>
       <c r="D3">
-        <v>3.14274779984071</v>
+        <v>3.142747799840645</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.22744487847342</v>
+        <v>26.22744487847339</v>
       </c>
       <c r="G3">
-        <v>20.183064036727</v>
+        <v>20.18306403672697</v>
       </c>
       <c r="H3">
-        <v>17.43647418485726</v>
+        <v>17.43647418485725</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>16.69376163056993</v>
+        <v>16.69376163056996</v>
       </c>
       <c r="K3">
         <v>27.74458120478821</v>
@@ -491,31 +491,31 @@
         <v>19.06421798925827</v>
       </c>
       <c r="C4">
-        <v>10.1403322671653</v>
+        <v>10.14033226716558</v>
       </c>
       <c r="D4">
-        <v>3.202713052116674</v>
+        <v>3.202713052116472</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.4073597214872</v>
+        <v>25.40735972148709</v>
       </c>
       <c r="G4">
-        <v>19.68120316004382</v>
+        <v>19.68120316004368</v>
       </c>
       <c r="H4">
-        <v>17.18107155704873</v>
+        <v>17.18107155704864</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>15.93995964444454</v>
+        <v>15.93995964444459</v>
       </c>
       <c r="K4">
-        <v>26.29762340501021</v>
+        <v>26.29762340501025</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66203181370212</v>
+        <v>18.66203181370211</v>
       </c>
       <c r="C5">
-        <v>9.94854244886041</v>
+        <v>9.948542448860421</v>
       </c>
       <c r="D5">
-        <v>3.22708892515437</v>
+        <v>3.227088925154169</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.07470277128319</v>
+        <v>25.07470277128321</v>
       </c>
       <c r="G5">
-        <v>19.48024377639933</v>
+        <v>19.48024377639931</v>
       </c>
       <c r="H5">
         <v>17.08228559981011</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.62353689884463</v>
+        <v>15.62353689884464</v>
       </c>
       <c r="K5">
-        <v>25.69348010403496</v>
+        <v>25.69348010403492</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59451374983799</v>
+        <v>18.59451374983792</v>
       </c>
       <c r="C6">
-        <v>9.916350841907187</v>
+        <v>9.91635084190735</v>
       </c>
       <c r="D6">
-        <v>3.231134226677614</v>
+        <v>3.231134226677546</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.01956719201843</v>
+        <v>25.01956719201841</v>
       </c>
       <c r="G6">
-        <v>19.44709184657355</v>
+        <v>19.44709184657354</v>
       </c>
       <c r="H6">
-        <v>17.0661962770013</v>
+        <v>17.06619627700137</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.05884315500989</v>
+        <v>19.0588431550097</v>
       </c>
       <c r="C7">
-        <v>10.13776885255264</v>
+        <v>10.13776885255278</v>
       </c>
       <c r="D7">
-        <v>3.203041976413226</v>
+        <v>3.203041976413427</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.4028667751311</v>
+        <v>25.40286677513119</v>
       </c>
       <c r="G7">
-        <v>19.67847844883351</v>
+        <v>19.67847844883363</v>
       </c>
       <c r="H7">
-        <v>17.17971811933971</v>
+        <v>17.17971811933988</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>15.93572978899878</v>
+        <v>15.93572978899869</v>
       </c>
       <c r="K7">
-        <v>26.28953518109927</v>
+        <v>26.2895351810993</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,10 +640,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.00216245079337</v>
+        <v>21.00216245079332</v>
       </c>
       <c r="C8">
-        <v>11.0647464574019</v>
+        <v>11.06474645740191</v>
       </c>
       <c r="D8">
         <v>3.078414235488883</v>
@@ -652,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.107019642727</v>
+        <v>27.10701964272699</v>
       </c>
       <c r="G8">
-        <v>20.7305181354222</v>
+        <v>20.73051813542221</v>
       </c>
       <c r="H8">
-        <v>17.72763709848509</v>
+        <v>17.72763709848511</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>17.46680692712277</v>
+        <v>17.46680692712274</v>
       </c>
       <c r="K8">
         <v>29.24078264435489</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.4464904760362</v>
+        <v>24.44649047603617</v>
       </c>
       <c r="C9">
         <v>12.70413906181558</v>
       </c>
       <c r="D9">
-        <v>2.827981164599504</v>
+        <v>2.827981164599637</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.48144413498737</v>
+        <v>30.48144413498746</v>
       </c>
       <c r="G9">
-        <v>22.90172601731993</v>
+        <v>22.90172601732003</v>
       </c>
       <c r="H9">
-        <v>18.98354078335913</v>
+        <v>18.98354078335923</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>20.18598464945964</v>
+        <v>20.18598464945959</v>
       </c>
       <c r="K9">
-        <v>34.62192032479343</v>
+        <v>34.6219203247935</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.76814907194469</v>
+        <v>26.76814907194468</v>
       </c>
       <c r="C10">
-        <v>13.80242308979213</v>
+        <v>13.80242308979228</v>
       </c>
       <c r="D10">
-        <v>2.636139833486355</v>
+        <v>2.636139833486285</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.97806781433613</v>
+        <v>32.97806781433618</v>
       </c>
       <c r="G10">
-        <v>24.56471665446184</v>
+        <v>24.56471665446188</v>
       </c>
       <c r="H10">
-        <v>20.02952390494726</v>
+        <v>20.0295239049473</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.02026278727583</v>
+        <v>22.02026278727589</v>
       </c>
       <c r="K10">
-        <v>38.37975891296308</v>
+        <v>38.37975891296312</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,34 +754,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.78278748729584</v>
+        <v>27.78278748729587</v>
       </c>
       <c r="C11">
-        <v>14.27976101453627</v>
+        <v>14.27976101453626</v>
       </c>
       <c r="D11">
-        <v>2.546021018480739</v>
+        <v>2.546021018480737</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.11951185816203</v>
+        <v>34.11951185816208</v>
       </c>
       <c r="G11">
-        <v>25.33781097138462</v>
+        <v>25.33781097138464</v>
       </c>
       <c r="H11">
-        <v>20.53546770298422</v>
+        <v>20.53546770298423</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.82176891458528</v>
+        <v>22.82176891458531</v>
       </c>
       <c r="K11">
-        <v>40.06127312343148</v>
+        <v>40.06127312343158</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>28.161412647391</v>
       </c>
       <c r="C12">
-        <v>14.45738620649385</v>
+        <v>14.45738620649394</v>
       </c>
       <c r="D12">
-        <v>2.5113691732526</v>
+        <v>2.511369173252531</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.55290455300561</v>
+        <v>34.5529045530056</v>
       </c>
       <c r="G12">
-        <v>25.6332205927962</v>
+        <v>25.63322059279618</v>
       </c>
       <c r="H12">
-        <v>20.7317327325759</v>
+        <v>20.73173273257587</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>23.12080084277784</v>
+        <v>23.12080084277789</v>
       </c>
       <c r="K12">
-        <v>40.69550714638195</v>
+        <v>40.69550714638201</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.08011129015818</v>
+        <v>28.08011129015809</v>
       </c>
       <c r="C13">
-        <v>14.41926952735388</v>
+        <v>14.41926952735378</v>
       </c>
       <c r="D13">
-        <v>2.51885753580515</v>
+        <v>2.518857535805283</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.45950744047926</v>
+        <v>34.45950744047928</v>
       </c>
       <c r="G13">
-        <v>25.56947519906782</v>
+        <v>25.56947519906786</v>
       </c>
       <c r="H13">
-        <v>20.68924929111464</v>
+        <v>20.68924929111467</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>23.05659377490682</v>
+        <v>23.05659377490671</v>
       </c>
       <c r="K13">
-        <v>40.55899825896417</v>
+        <v>40.55899825896398</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.81404702833814</v>
+        <v>27.81404702833812</v>
       </c>
       <c r="C14">
-        <v>14.29443668354875</v>
+        <v>14.29443668354877</v>
       </c>
       <c r="D14">
-        <v>2.54318147040717</v>
+        <v>2.54318147040677</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.15514177400462</v>
+        <v>34.15514177400463</v>
       </c>
       <c r="G14">
-        <v>25.36205932045463</v>
+        <v>25.36205932045462</v>
       </c>
       <c r="H14">
-        <v>20.55151859845362</v>
+        <v>20.55151859845359</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.84645865762909</v>
+        <v>22.84645865762911</v>
       </c>
       <c r="K14">
-        <v>40.1134927127948</v>
+        <v>40.11349271279476</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.65035819402696</v>
+        <v>27.65035819402692</v>
       </c>
       <c r="C15">
-        <v>14.21756730323207</v>
+        <v>14.21756730323218</v>
       </c>
       <c r="D15">
-        <v>2.558008295541612</v>
+        <v>2.558008295541676</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.96887163765019</v>
+        <v>33.9688716376502</v>
       </c>
       <c r="G15">
-        <v>25.23536690234607</v>
+        <v>25.23536690234611</v>
       </c>
       <c r="H15">
-        <v>20.4677749421977</v>
+        <v>20.46777494219777</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>22.71716949220877</v>
+        <v>22.71716949220878</v>
       </c>
       <c r="K15">
-        <v>39.84032946969747</v>
+        <v>39.8403294696973</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.70103542905517</v>
+        <v>26.70103542905522</v>
       </c>
       <c r="C16">
-        <v>13.77078553698682</v>
+        <v>13.77078553698697</v>
       </c>
       <c r="D16">
-        <v>2.641962525475158</v>
+        <v>2.641962525475224</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.90361151340617</v>
+        <v>32.90361151340612</v>
       </c>
       <c r="G16">
-        <v>24.5145475050053</v>
+        <v>24.51454750500526</v>
       </c>
       <c r="H16">
-        <v>19.99709307945229</v>
+        <v>19.99709307945226</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>21.96724072401822</v>
+        <v>21.96724072401827</v>
       </c>
       <c r="K16">
-        <v>38.26942705405997</v>
+        <v>38.26942705405993</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,34 +982,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.10827452341576</v>
+        <v>26.10827452341575</v>
       </c>
       <c r="C17">
-        <v>13.49104147570457</v>
+        <v>13.49104147570462</v>
       </c>
       <c r="D17">
-        <v>2.692659754522533</v>
+        <v>2.692659754522598</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.25176006244207</v>
+        <v>32.25176006244212</v>
       </c>
       <c r="G17">
-        <v>24.07675512664843</v>
+        <v>24.07675512664847</v>
       </c>
       <c r="H17">
-        <v>19.7162815196441</v>
+        <v>19.71628151964415</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>21.49891958253169</v>
+        <v>21.4989195825317</v>
       </c>
       <c r="K17">
-        <v>37.29954728749082</v>
+        <v>37.29954728749075</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1023,31 +1023,31 @@
         <v>25.76340308834322</v>
       </c>
       <c r="C18">
-        <v>13.32803845883254</v>
+        <v>13.32803845883255</v>
       </c>
       <c r="D18">
-        <v>2.721559332535026</v>
+        <v>2.721559332535095</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.87734184264157</v>
+        <v>31.87734184264159</v>
       </c>
       <c r="G18">
-        <v>23.82648792376727</v>
+        <v>23.82648792376729</v>
       </c>
       <c r="H18">
-        <v>19.55757693511917</v>
+        <v>19.55757693511918</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>21.22643802051023</v>
+        <v>21.22643802051024</v>
       </c>
       <c r="K18">
-        <v>36.73896240965905</v>
+        <v>36.73896240965912</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,31 +1061,31 @@
         <v>25.64595001981803</v>
       </c>
       <c r="C19">
-        <v>13.27248546064021</v>
+        <v>13.27248546064031</v>
       </c>
       <c r="D19">
-        <v>2.731302760938655</v>
+        <v>2.731302760938724</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.75065021277529</v>
+        <v>31.75065021277533</v>
       </c>
       <c r="G19">
-        <v>23.74200971381006</v>
+        <v>23.74200971381005</v>
       </c>
       <c r="H19">
-        <v>19.50431576124371</v>
+        <v>19.50431576124365</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>21.13363832231068</v>
+        <v>21.13363832231071</v>
       </c>
       <c r="K19">
-        <v>36.54864721946171</v>
+        <v>36.54864721946179</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.17177928127833</v>
+        <v>26.17177928127821</v>
       </c>
       <c r="C20">
-        <v>13.52103773279099</v>
+        <v>13.52103773279106</v>
       </c>
       <c r="D20">
-        <v>2.687290644811216</v>
+        <v>2.687290644811283</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.32109613284565</v>
+        <v>32.32109613284559</v>
       </c>
       <c r="G20">
-        <v>24.12319795280673</v>
+        <v>24.1231979528067</v>
       </c>
       <c r="H20">
         <v>19.74588123165777</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>21.54909392985455</v>
+        <v>21.54909392985448</v>
       </c>
       <c r="K20">
-        <v>37.40306586822482</v>
+        <v>37.40306586822468</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,34 +1134,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.89234518119637</v>
+        <v>27.89234518119641</v>
       </c>
       <c r="C21">
-        <v>14.3311875153929</v>
+        <v>14.33118751539293</v>
       </c>
       <c r="D21">
-        <v>2.536052244255578</v>
+        <v>2.536052244255174</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.2445066393804</v>
+        <v>34.24450663938047</v>
       </c>
       <c r="G21">
-        <v>25.42290759668677</v>
+        <v>25.42290759668681</v>
       </c>
       <c r="H21">
-        <v>20.59184342831411</v>
+        <v>20.59184342831414</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.90829982223831</v>
+        <v>22.9082998222383</v>
       </c>
       <c r="K21">
-        <v>40.2444033424297</v>
+        <v>40.24440334242976</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.98443306253071</v>
+        <v>28.98443306253089</v>
       </c>
       <c r="C22">
         <v>14.84244894579668</v>
       </c>
       <c r="D22">
-        <v>2.434073878679046</v>
+        <v>2.434073878679043</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.61063785820057</v>
+        <v>35.61063785820075</v>
       </c>
       <c r="G22">
-        <v>26.32913483635511</v>
+        <v>26.32913483635525</v>
       </c>
       <c r="H22">
-        <v>21.17220037846843</v>
+        <v>21.17220037846847</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>23.77065081335828</v>
+        <v>23.77065081335837</v>
       </c>
       <c r="K22">
-        <v>42.087639651087</v>
+        <v>42.08763965108711</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.40439091774612</v>
+        <v>28.40439091774609</v>
       </c>
       <c r="C23">
-        <v>14.57122028493258</v>
+        <v>14.57122028493253</v>
       </c>
       <c r="D23">
-        <v>2.488832808429194</v>
+        <v>2.488832808429389</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.86209180203032</v>
+        <v>34.8620918020303</v>
       </c>
       <c r="G23">
         <v>25.82474384513981</v>
       </c>
       <c r="H23">
-        <v>20.85980379090194</v>
+        <v>20.85980379090193</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>23.31267878175465</v>
+        <v>23.3126787817546</v>
       </c>
       <c r="K23">
-        <v>41.10454521287416</v>
+        <v>41.1045452128741</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.14308153206327</v>
+        <v>26.14308153206314</v>
       </c>
       <c r="C24">
-        <v>13.50748320314365</v>
+        <v>13.50748320314359</v>
       </c>
       <c r="D24">
-        <v>2.689718780086104</v>
+        <v>2.689718780086036</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.28974825959895</v>
+        <v>32.28974825959896</v>
       </c>
       <c r="G24">
-        <v>24.10219672987559</v>
+        <v>24.10219672987563</v>
       </c>
       <c r="H24">
-        <v>19.73249069936742</v>
+        <v>19.73249069936747</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>21.52642020990149</v>
+        <v>21.52642020990139</v>
       </c>
       <c r="K24">
-        <v>37.35627453247969</v>
+        <v>37.35627453247978</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.55255106303301</v>
+        <v>23.55255106303298</v>
       </c>
       <c r="C25">
-        <v>12.27951020217112</v>
+        <v>12.27951020217104</v>
       </c>
       <c r="D25">
-        <v>2.896768906132659</v>
+        <v>2.896768906132724</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.56573057243078</v>
+        <v>29.56573057243072</v>
       </c>
       <c r="G25">
-        <v>22.30280227522611</v>
+        <v>22.3028022752261</v>
       </c>
       <c r="H25">
-        <v>18.62312687688146</v>
+        <v>18.6231268768815</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>19.47984645642494</v>
+        <v>19.47984645642489</v>
       </c>
       <c r="K25">
-        <v>33.20480079904768</v>
+        <v>33.20480079904767</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.50342019601196</v>
+        <v>21.50319544916871</v>
       </c>
       <c r="C2">
-        <v>11.30376430923715</v>
+        <v>11.30045097642509</v>
       </c>
       <c r="D2">
-        <v>3.04437152423041</v>
+        <v>3.04458925339954</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.57128338738377</v>
+        <v>27.5528630123477</v>
       </c>
       <c r="G2">
-        <v>21.02293864212988</v>
+        <v>19.88001318026834</v>
       </c>
       <c r="H2">
-        <v>17.88793823972859</v>
+        <v>21.05642837182365</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17.87509190341328</v>
       </c>
       <c r="J2">
-        <v>17.86219631210962</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>30.01127244209505</v>
+        <v>17.8609312916332</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>30.01104138374825</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.02148666199334</v>
+        <v>20.02141393247813</v>
       </c>
       <c r="C3">
-        <v>10.59696090452962</v>
+        <v>10.59404599217337</v>
       </c>
       <c r="D3">
-        <v>3.142747799840645</v>
+        <v>3.142748925791804</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.22744487847339</v>
+        <v>26.21024060906789</v>
       </c>
       <c r="G3">
-        <v>20.18306403672697</v>
+        <v>18.77816602638326</v>
       </c>
       <c r="H3">
-        <v>17.43647418485725</v>
+        <v>20.21532583580979</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17.42463804659761</v>
       </c>
       <c r="J3">
-        <v>16.69376163056996</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>27.74458120478821</v>
+        <v>16.69273263695219</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>27.74444955006448</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.06421798925827</v>
+        <v>19.0642356586806</v>
       </c>
       <c r="C4">
-        <v>10.14033226716558</v>
+        <v>10.1376749173706</v>
       </c>
       <c r="D4">
-        <v>3.202713052116472</v>
+        <v>3.202581790612399</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.40735972148709</v>
+        <v>25.3909276242503</v>
       </c>
       <c r="G4">
-        <v>19.68120316004368</v>
+        <v>18.10113301240067</v>
       </c>
       <c r="H4">
-        <v>17.18107155704864</v>
+        <v>19.71275880350422</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>17.16987169742494</v>
       </c>
       <c r="J4">
-        <v>15.93995964444459</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>26.29762340501025</v>
+        <v>15.93907885519003</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>26.29754492144843</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66203181370211</v>
+        <v>18.66208579986994</v>
       </c>
       <c r="C5">
-        <v>9.948542448860421</v>
+        <v>9.945993573700328</v>
       </c>
       <c r="D5">
-        <v>3.227088925154169</v>
+        <v>3.22690371374742</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.07470277128321</v>
+        <v>25.05859176444322</v>
       </c>
       <c r="G5">
-        <v>19.48024377639931</v>
+        <v>17.82532103742099</v>
       </c>
       <c r="H5">
-        <v>17.08228559981011</v>
+        <v>19.51152389238725</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>17.07134856165901</v>
       </c>
       <c r="J5">
-        <v>15.62353689884464</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>25.69348010403492</v>
+        <v>15.62271757753124</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>25.69342162503829</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59451374983792</v>
+        <v>18.59457374101731</v>
       </c>
       <c r="C6">
-        <v>9.91635084190735</v>
+        <v>9.913820199297989</v>
       </c>
       <c r="D6">
-        <v>3.231134226677546</v>
+        <v>3.230940052820055</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.01956719201841</v>
+        <v>25.00350988792841</v>
       </c>
       <c r="G6">
-        <v>19.44709184657354</v>
+        <v>17.77953527841705</v>
       </c>
       <c r="H6">
-        <v>17.06619627700137</v>
+        <v>19.47832695619378</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>17.05530307796877</v>
       </c>
       <c r="J6">
-        <v>15.57043455726123</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>25.59227020283619</v>
+        <v>15.56962551478754</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>25.59221495331877</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.0588431550097</v>
+        <v>19.05886131604534</v>
       </c>
       <c r="C7">
-        <v>10.13776885255278</v>
+        <v>10.13511295108695</v>
       </c>
       <c r="D7">
-        <v>3.203041976413427</v>
+        <v>3.20290998751206</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.40286677513119</v>
+        <v>25.38643898229491</v>
       </c>
       <c r="G7">
-        <v>19.67847844883363</v>
+        <v>18.09741264432988</v>
       </c>
       <c r="H7">
-        <v>17.17971811933988</v>
+        <v>19.7100303266244</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>17.16852179061058</v>
       </c>
       <c r="J7">
-        <v>15.93572978899869</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>26.2895351810993</v>
+        <v>15.93484982404671</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>26.28945697368338</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.00216245079332</v>
+        <v>21.00199086539381</v>
       </c>
       <c r="C8">
-        <v>11.06474645740191</v>
+        <v>11.06156797034336</v>
       </c>
       <c r="D8">
-        <v>3.078414235488883</v>
+        <v>3.078557053211271</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.10701964272699</v>
+        <v>27.08901334446449</v>
       </c>
       <c r="G8">
-        <v>20.73051813542221</v>
+        <v>19.50030063030772</v>
       </c>
       <c r="H8">
-        <v>17.72763709848511</v>
+        <v>20.76357469146073</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>17.71513547960706</v>
       </c>
       <c r="J8">
-        <v>17.46680692712274</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>29.24078264435489</v>
+        <v>17.46562275666452</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>29.24058769946845</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.44649047603617</v>
+        <v>24.44591269132147</v>
       </c>
       <c r="C9">
-        <v>12.70413906181558</v>
+        <v>12.70002722224344</v>
       </c>
       <c r="D9">
-        <v>2.827981164599637</v>
+        <v>2.828676209236604</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.48144413498746</v>
+        <v>30.46053662926547</v>
       </c>
       <c r="G9">
-        <v>22.90172601732003</v>
+        <v>22.24250167615671</v>
       </c>
       <c r="H9">
-        <v>18.98354078335923</v>
+        <v>22.93810257732616</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>18.9686240419389</v>
       </c>
       <c r="J9">
-        <v>20.18598464945959</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>34.6219203247935</v>
+        <v>20.1842186276627</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>34.62141628350702</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.76814907194468</v>
+        <v>26.76723475029277</v>
       </c>
       <c r="C10">
-        <v>13.80242308979228</v>
+        <v>13.7976661911458</v>
       </c>
       <c r="D10">
-        <v>2.636139833486285</v>
+        <v>2.637263878920416</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.97806781433618</v>
+        <v>32.95512576280275</v>
       </c>
       <c r="G10">
-        <v>24.56471665446188</v>
+        <v>24.25193516487269</v>
       </c>
       <c r="H10">
-        <v>20.0295239049473</v>
+        <v>24.60374614592327</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>20.01293587376394</v>
       </c>
       <c r="J10">
-        <v>22.02026278727589</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>38.37975891296312</v>
+        <v>22.0180613115873</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>38.37894632164767</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.78278748729587</v>
+        <v>27.78170697784194</v>
       </c>
       <c r="C11">
-        <v>14.27976101453626</v>
+        <v>14.27471611966566</v>
       </c>
       <c r="D11">
-        <v>2.546021018480737</v>
+        <v>2.547349987622837</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.11951185816208</v>
+        <v>34.09565740682588</v>
       </c>
       <c r="G11">
-        <v>25.33781097138464</v>
+        <v>25.19667908773526</v>
       </c>
       <c r="H11">
-        <v>20.53546770298423</v>
+        <v>25.37809237856804</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>20.51814186804494</v>
       </c>
       <c r="J11">
-        <v>22.82176891458531</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>40.06127312343158</v>
+        <v>22.81936325785787</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>40.06029199020293</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.161412647391</v>
+        <v>28.16026681426036</v>
       </c>
       <c r="C12">
-        <v>14.45738620649394</v>
+        <v>14.45223273393229</v>
       </c>
       <c r="D12">
-        <v>2.511369173252531</v>
+        <v>2.51277768446189</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.5529045530056</v>
+        <v>34.52870557409092</v>
       </c>
       <c r="G12">
-        <v>25.63322059279618</v>
+        <v>25.56426452166268</v>
       </c>
       <c r="H12">
-        <v>20.73173273257587</v>
+        <v>25.67398253574524</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>20.71413049992046</v>
       </c>
       <c r="J12">
-        <v>23.12080084277789</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>40.69550714638201</v>
+        <v>23.1183165533491</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>40.69445690516579</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.08011129015809</v>
+        <v>28.07897964138046</v>
       </c>
       <c r="C13">
-        <v>14.41926952735378</v>
+        <v>14.41413942272283</v>
       </c>
       <c r="D13">
-        <v>2.518857535805283</v>
+        <v>2.520248819581315</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.45950744047928</v>
+        <v>34.43538263532177</v>
       </c>
       <c r="G13">
-        <v>25.56947519906786</v>
+        <v>25.48511770774148</v>
       </c>
       <c r="H13">
-        <v>20.68924929111467</v>
+        <v>25.61013336193288</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>20.67170645878552</v>
       </c>
       <c r="J13">
-        <v>23.05659377490671</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>40.55899825896398</v>
+        <v>23.05412648674773</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>40.55796316027657</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.81404702833812</v>
+        <v>27.8129611959289</v>
       </c>
       <c r="C14">
-        <v>14.29443668354877</v>
+        <v>14.28938284814103</v>
       </c>
       <c r="D14">
-        <v>2.54318147040677</v>
+        <v>2.544516940966628</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.15514177400463</v>
+        <v>34.13125896464069</v>
       </c>
       <c r="G14">
-        <v>25.36205932045462</v>
+        <v>25.22692997348428</v>
       </c>
       <c r="H14">
-        <v>20.55151859845359</v>
+        <v>25.4023801318636</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>20.53416996630424</v>
       </c>
       <c r="J14">
-        <v>22.84645865762911</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>40.11349271279476</v>
+        <v>22.84404656087887</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>40.11250600837137</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.65035819402692</v>
+        <v>27.64930009692184</v>
       </c>
       <c r="C15">
-        <v>14.21756730323218</v>
+        <v>14.2125602379832</v>
       </c>
       <c r="D15">
-        <v>2.558008295541676</v>
+        <v>2.559309850377381</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.9688716376502</v>
+        <v>33.94513715402955</v>
       </c>
       <c r="G15">
-        <v>25.23536690234611</v>
+        <v>25.06871769224031</v>
       </c>
       <c r="H15">
-        <v>20.46777494219777</v>
+        <v>25.27548191887726</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>20.45054564207053</v>
       </c>
       <c r="J15">
-        <v>22.71716949220878</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>39.8403294696973</v>
+        <v>22.71479101628956</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>39.83937167680042</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.70103542905522</v>
+        <v>26.70013166363478</v>
       </c>
       <c r="C16">
-        <v>13.77078553698697</v>
+        <v>13.76604754389019</v>
       </c>
       <c r="D16">
-        <v>2.641962525475224</v>
+        <v>2.643073417785374</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.90361151340612</v>
+        <v>32.88072928107358</v>
       </c>
       <c r="G16">
-        <v>24.51454750500526</v>
+        <v>24.19217540661846</v>
       </c>
       <c r="H16">
-        <v>19.99709307945226</v>
+        <v>24.55349608412969</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>19.98055370224368</v>
       </c>
       <c r="J16">
-        <v>21.96724072401827</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>38.26942705405993</v>
+        <v>21.96505243384615</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>38.2686248132452</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.10827452341575</v>
+        <v>26.10746175258904</v>
       </c>
       <c r="C17">
-        <v>13.49104147570462</v>
+        <v>13.48646973722608</v>
       </c>
       <c r="D17">
-        <v>2.692659754522598</v>
+        <v>2.693656520839468</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.25176006244212</v>
+        <v>32.2294034454757</v>
       </c>
       <c r="G17">
-        <v>24.07675512664847</v>
+        <v>23.66859639517498</v>
       </c>
       <c r="H17">
-        <v>19.71628151964415</v>
+        <v>24.11499963744018</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>19.7001710414633</v>
       </c>
       <c r="J17">
-        <v>21.4989195825317</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>37.29954728749075</v>
+        <v>21.49684611766975</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>37.29883248896733</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.76340308834322</v>
+        <v>25.76264145860666</v>
       </c>
       <c r="C18">
-        <v>13.32803845883255</v>
+        <v>13.32356287754094</v>
       </c>
       <c r="D18">
-        <v>2.721559332535095</v>
+        <v>2.722491336571014</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.87734184264159</v>
+        <v>31.85528884819454</v>
       </c>
       <c r="G18">
-        <v>23.82648792376729</v>
+        <v>23.36751594394795</v>
       </c>
       <c r="H18">
-        <v>19.55757693511918</v>
+        <v>23.86433171245634</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>19.54171529032337</v>
       </c>
       <c r="J18">
-        <v>21.22643802051024</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>36.73896240965912</v>
+        <v>21.22443005702914</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>36.73829534498733</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.64595001981803</v>
+        <v>25.6452055138322</v>
       </c>
       <c r="C19">
-        <v>13.27248546064031</v>
+        <v>13.26804253665613</v>
       </c>
       <c r="D19">
-        <v>2.731302760938724</v>
+        <v>2.732212974695</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.75065021277533</v>
+        <v>31.72870026735465</v>
       </c>
       <c r="G19">
-        <v>23.74200971381005</v>
+        <v>23.26557928697413</v>
       </c>
       <c r="H19">
-        <v>19.50431576124365</v>
+        <v>23.77971855518711</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>19.48853873882097</v>
       </c>
       <c r="J19">
-        <v>21.13363832231071</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>36.54864721946179</v>
+        <v>21.13165245527796</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>36.54799590863023</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.17177928127821</v>
+        <v>26.17095695110305</v>
       </c>
       <c r="C20">
-        <v>13.52103773279106</v>
+        <v>13.51644824327504</v>
       </c>
       <c r="D20">
-        <v>2.687290644811283</v>
+        <v>2.688299465542198</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.32109613284559</v>
+        <v>32.29868343426862</v>
       </c>
       <c r="G20">
-        <v>24.1231979528067</v>
+        <v>23.72432327911798</v>
       </c>
       <c r="H20">
-        <v>19.74588123165777</v>
+        <v>24.16151697456409</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>19.72972487579187</v>
       </c>
       <c r="J20">
-        <v>21.54909392985448</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>37.40306586822468</v>
+        <v>21.54700830077032</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>37.4023420340998</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.89234518119641</v>
+        <v>27.89124596095305</v>
       </c>
       <c r="C21">
-        <v>14.33118751539293</v>
+        <v>14.32611126739191</v>
       </c>
       <c r="D21">
-        <v>2.536052244255174</v>
+        <v>2.537404050744469</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.24450663938047</v>
+        <v>34.22055273188357</v>
       </c>
       <c r="G21">
-        <v>25.42290759668681</v>
+        <v>25.30277861347655</v>
       </c>
       <c r="H21">
-        <v>20.59184342831414</v>
+        <v>25.46332732069155</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>20.57443767667153</v>
       </c>
       <c r="J21">
-        <v>22.9082998222383</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>40.24440334242976</v>
+        <v>22.90587155399518</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>40.24340257862085</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.98443306253089</v>
+        <v>28.98313860996199</v>
       </c>
       <c r="C22">
-        <v>14.84244894579668</v>
+        <v>14.83705720829008</v>
       </c>
       <c r="D22">
-        <v>2.434073878679043</v>
+        <v>2.43566153953962</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.61063785820075</v>
+        <v>35.58527018643963</v>
       </c>
       <c r="G22">
-        <v>26.32913483635525</v>
+        <v>26.37207240177926</v>
       </c>
       <c r="H22">
-        <v>21.17220037846847</v>
+        <v>26.32986495633089</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>21.15399523690568</v>
       </c>
       <c r="J22">
-        <v>23.77065081335837</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>42.08763965108711</v>
+        <v>23.7679906837256</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>42.08642621157307</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.40439091774609</v>
+        <v>28.40320216992295</v>
       </c>
       <c r="C23">
-        <v>14.57122028493253</v>
+        <v>14.56599679721025</v>
       </c>
       <c r="D23">
-        <v>2.488832808429389</v>
+        <v>2.490293297961915</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.8620918020303</v>
+        <v>34.83724716910159</v>
       </c>
       <c r="G23">
-        <v>25.82474384513981</v>
+        <v>25.8015047535252</v>
       </c>
       <c r="H23">
-        <v>20.85980379090193</v>
+        <v>25.86581786230584</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>20.8420238681015</v>
       </c>
       <c r="J23">
-        <v>23.3126787817546</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>41.1045452128741</v>
+        <v>23.31014329416561</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>41.10344869781865</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.14308153206314</v>
+        <v>26.14226352728663</v>
       </c>
       <c r="C24">
-        <v>13.50748320314359</v>
+        <v>13.50290173705718</v>
       </c>
       <c r="D24">
-        <v>2.689718780086036</v>
+        <v>2.690722148405901</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.28974825959896</v>
+        <v>32.2673609109687</v>
       </c>
       <c r="G24">
-        <v>24.10219672987563</v>
+        <v>23.69912938886979</v>
       </c>
       <c r="H24">
-        <v>19.73249069936747</v>
+        <v>24.14048205259843</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>19.71635507776731</v>
       </c>
       <c r="J24">
-        <v>21.52642020990139</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>37.35627453247978</v>
+        <v>21.52434008182912</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>37.3555547911718</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.55255106303298</v>
+        <v>23.55208844714149</v>
       </c>
       <c r="C25">
-        <v>12.27951020217104</v>
+        <v>12.27564261863923</v>
       </c>
       <c r="D25">
-        <v>2.896768906132724</v>
+        <v>2.89731177564298</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.56573057243072</v>
+        <v>29.54558879082708</v>
       </c>
       <c r="G25">
-        <v>22.3028022752261</v>
+        <v>21.5019477531071</v>
       </c>
       <c r="H25">
-        <v>18.6231268768815</v>
+        <v>22.33824246019141</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>18.60884597896254</v>
       </c>
       <c r="J25">
-        <v>19.47984645642489</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>33.20480079904767</v>
+        <v>19.47823791932792</v>
       </c>
       <c r="L25">
+        <v>33.20439182749705</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.50319544916871</v>
+        <v>21.70989341403726</v>
       </c>
       <c r="C2">
-        <v>11.30045097642509</v>
+        <v>14.89550369456989</v>
       </c>
       <c r="D2">
-        <v>3.04458925339954</v>
+        <v>2.904657612686211</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.5528630123477</v>
+        <v>40.86730338863094</v>
       </c>
       <c r="G2">
-        <v>19.88001318026834</v>
+        <v>2.100848018553321</v>
       </c>
       <c r="H2">
-        <v>21.05642837182365</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>17.87509190341328</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.279762456694257</v>
       </c>
       <c r="K2">
-        <v>17.8609312916332</v>
+        <v>18.78748901518835</v>
       </c>
       <c r="L2">
-        <v>30.01104138374825</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>16.02201060786513</v>
+      </c>
+      <c r="N2">
+        <v>14.82883797977972</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.02141393247813</v>
+        <v>20.32193877725011</v>
       </c>
       <c r="C3">
-        <v>10.59404599217337</v>
+        <v>13.82125745077022</v>
       </c>
       <c r="D3">
-        <v>3.142748925791804</v>
+        <v>2.869024399509664</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.21024060906789</v>
+        <v>39.39460230500596</v>
       </c>
       <c r="G3">
-        <v>18.77816602638326</v>
+        <v>2.112202755863899</v>
       </c>
       <c r="H3">
-        <v>20.21532583580979</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>17.42463804659761</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.269926611232719</v>
       </c>
       <c r="K3">
-        <v>16.69273263695219</v>
+        <v>17.58851933054884</v>
       </c>
       <c r="L3">
-        <v>27.74444955006448</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.28631882984528</v>
+      </c>
+      <c r="N3">
+        <v>14.99034812930484</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.0642356586806</v>
+        <v>19.43999476145749</v>
       </c>
       <c r="C4">
-        <v>10.1376749173706</v>
+        <v>13.14326555535722</v>
       </c>
       <c r="D4">
-        <v>3.202581790612399</v>
+        <v>2.847896064684804</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.3909276242503</v>
+        <v>38.50467699038381</v>
       </c>
       <c r="G4">
-        <v>18.10113301240067</v>
+        <v>2.119324665765178</v>
       </c>
       <c r="H4">
-        <v>19.71275880350422</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>17.16987169742494</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.267029217644422</v>
       </c>
       <c r="K4">
-        <v>15.93907885519003</v>
+        <v>16.85890356384379</v>
       </c>
       <c r="L4">
-        <v>26.29754492144843</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>14.83040851704705</v>
+      </c>
+      <c r="N4">
+        <v>15.09470530014114</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.66208579986994</v>
+        <v>19.07327860343616</v>
       </c>
       <c r="C5">
-        <v>9.945993573700328</v>
+        <v>12.87247980862355</v>
       </c>
       <c r="D5">
-        <v>3.22690371374742</v>
+        <v>2.8394734364676</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.05859176444322</v>
+        <v>38.14584033442721</v>
       </c>
       <c r="G5">
-        <v>17.82532103742099</v>
+        <v>2.122267559218027</v>
       </c>
       <c r="H5">
-        <v>19.51152389238725</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>17.07134856165901</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.266611031315058</v>
       </c>
       <c r="K5">
-        <v>15.62271757753124</v>
+        <v>16.55625993660536</v>
       </c>
       <c r="L5">
-        <v>25.69342162503829</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.64376827625457</v>
+      </c>
+      <c r="N5">
+        <v>15.13848911192415</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.59457374101731</v>
+        <v>19.01195000414323</v>
       </c>
       <c r="C6">
-        <v>9.913820199297989</v>
+        <v>12.82713513595786</v>
       </c>
       <c r="D6">
-        <v>3.230940052820055</v>
+        <v>2.838086155698534</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.00350988792841</v>
+        <v>38.08649316535082</v>
       </c>
       <c r="G6">
-        <v>17.77953527841705</v>
+        <v>2.122758761128333</v>
       </c>
       <c r="H6">
-        <v>19.47832695619378</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>17.05530307796877</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.266586865257423</v>
       </c>
       <c r="K6">
-        <v>15.56962551478754</v>
+        <v>16.50569157963781</v>
       </c>
       <c r="L6">
-        <v>25.59221495331877</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.61273191539784</v>
+      </c>
+      <c r="N6">
+        <v>15.1458340573811</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.05886131604534</v>
+        <v>19.43507845430372</v>
       </c>
       <c r="C7">
-        <v>10.13511295108695</v>
+        <v>13.13963921504133</v>
       </c>
       <c r="D7">
-        <v>3.20290998751206</v>
+        <v>2.847781716860257</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.38643898229491</v>
+        <v>38.49982183609646</v>
       </c>
       <c r="G7">
-        <v>18.09741264432988</v>
+        <v>2.119364186336948</v>
       </c>
       <c r="H7">
-        <v>19.7100303266244</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>17.16852179061058</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.267020525852667</v>
       </c>
       <c r="K7">
-        <v>15.93484982404671</v>
+        <v>16.85484325379351</v>
       </c>
       <c r="L7">
-        <v>26.28945697368338</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14.82789458124903</v>
+      </c>
+      <c r="N7">
+        <v>15.09529075079391</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.00199086539381</v>
+        <v>21.23756966111513</v>
       </c>
       <c r="C8">
-        <v>11.06156797034336</v>
+        <v>14.53144891321682</v>
       </c>
       <c r="D8">
-        <v>3.078557053211271</v>
+        <v>2.892214334256373</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.08901334446449</v>
+        <v>40.35665971389331</v>
       </c>
       <c r="G8">
-        <v>19.50030063030772</v>
+        <v>2.104733825929244</v>
       </c>
       <c r="H8">
-        <v>20.76357469146073</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>17.71513547960706</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.275701992903575</v>
       </c>
       <c r="K8">
-        <v>17.46562275666452</v>
+        <v>18.3483782523011</v>
       </c>
       <c r="L8">
-        <v>29.24058769946845</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15.76932256912295</v>
+      </c>
+      <c r="N8">
+        <v>14.88341902294637</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.44591269132147</v>
+        <v>24.7403879904031</v>
       </c>
       <c r="C9">
-        <v>12.70002722224344</v>
+        <v>17.04638805975008</v>
       </c>
       <c r="D9">
-        <v>2.828676209236604</v>
+        <v>2.985432279660069</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.46053662926547</v>
+        <v>44.10481138900613</v>
       </c>
       <c r="G9">
-        <v>22.24250167615671</v>
+        <v>2.077088238371203</v>
       </c>
       <c r="H9">
-        <v>22.93810257732616</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>18.9686240419389</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.318969240209102</v>
       </c>
       <c r="K9">
-        <v>20.1842186276627</v>
+        <v>21.4918925833927</v>
       </c>
       <c r="L9">
-        <v>34.62141628350702</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>17.57551642106482</v>
+      </c>
+      <c r="N9">
+        <v>14.5116277086233</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.76723475029277</v>
+        <v>27.19057418939209</v>
       </c>
       <c r="C10">
-        <v>13.7976661911458</v>
+        <v>18.75798002447981</v>
       </c>
       <c r="D10">
-        <v>2.637263878920416</v>
+        <v>3.057941286358893</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.95512576280275</v>
+        <v>46.91998036180576</v>
       </c>
       <c r="G10">
-        <v>24.25193516487269</v>
+        <v>2.057185238441119</v>
       </c>
       <c r="H10">
-        <v>24.60374614592327</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>20.01293587376394</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.368713350344189</v>
       </c>
       <c r="K10">
-        <v>22.0180613115873</v>
+        <v>23.63753454248844</v>
       </c>
       <c r="L10">
-        <v>38.37894632164767</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>18.87305544038142</v>
+      </c>
+      <c r="N10">
+        <v>14.26928943306745</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.78170697784194</v>
+        <v>28.26593547164568</v>
       </c>
       <c r="C11">
-        <v>14.27471611966566</v>
+        <v>19.5097353605464</v>
       </c>
       <c r="D11">
-        <v>2.547349987622837</v>
+        <v>3.091915755755562</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.09565740682588</v>
+        <v>48.21498736741929</v>
       </c>
       <c r="G11">
-        <v>25.19667908773526</v>
+        <v>2.048160419928354</v>
       </c>
       <c r="H11">
-        <v>25.37809237856804</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>20.51814186804494</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.395719096473814</v>
       </c>
       <c r="K11">
-        <v>22.81936325785787</v>
+        <v>24.57818715729647</v>
       </c>
       <c r="L11">
-        <v>40.06029199020293</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>19.62042366198478</v>
+      </c>
+      <c r="N11">
+        <v>14.16690662590373</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.16026681426036</v>
+        <v>28.66783125345342</v>
       </c>
       <c r="C12">
-        <v>14.45223273393229</v>
+        <v>19.7908055107611</v>
       </c>
       <c r="D12">
-        <v>2.51277768446189</v>
+        <v>3.10493694164483</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.52870557409092</v>
+        <v>48.70765747431607</v>
       </c>
       <c r="G12">
-        <v>25.56426452166268</v>
+        <v>2.044741442320626</v>
       </c>
       <c r="H12">
-        <v>25.67398253574524</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>20.71413049992046</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.406619035379298</v>
       </c>
       <c r="K12">
-        <v>23.1183165533491</v>
+        <v>24.92960953259937</v>
       </c>
       <c r="L12">
-        <v>40.69445690516579</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>19.89951258803677</v>
+      </c>
+      <c r="N12">
+        <v>14.12938778938348</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.07897964138046</v>
+        <v>28.58150672499578</v>
       </c>
       <c r="C13">
-        <v>14.41413942272283</v>
+        <v>19.73042774990135</v>
       </c>
       <c r="D13">
-        <v>2.520248819581315</v>
+        <v>3.102125409518599</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.43538263532177</v>
+        <v>48.6014460819756</v>
       </c>
       <c r="G13">
-        <v>25.48511770774148</v>
+        <v>2.045477944655745</v>
       </c>
       <c r="H13">
-        <v>25.61013336193288</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>20.67170645878552</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.404240834797781</v>
       </c>
       <c r="K13">
-        <v>23.05412648674773</v>
+        <v>24.85413174603971</v>
       </c>
       <c r="L13">
-        <v>40.55796316027657</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>19.83957608148301</v>
+      </c>
+      <c r="N13">
+        <v>14.13741032631742</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.8129611959289</v>
+        <v>28.29910427017505</v>
       </c>
       <c r="C14">
-        <v>14.28938284814103</v>
+        <v>19.53292976761929</v>
       </c>
       <c r="D14">
-        <v>2.544516940966628</v>
+        <v>3.092983802754013</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.13125896464069</v>
+        <v>48.25547230125659</v>
       </c>
       <c r="G14">
-        <v>25.22692997348428</v>
+        <v>2.047879203414978</v>
       </c>
       <c r="H14">
-        <v>25.4023801318636</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>20.53416996630424</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.396602075069513</v>
       </c>
       <c r="K14">
-        <v>22.84404656087887</v>
+        <v>24.60719280843054</v>
       </c>
       <c r="L14">
-        <v>40.11250600837137</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>19.64346160210017</v>
+      </c>
+      <c r="N14">
+        <v>14.16379407887144</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.64930009692184</v>
+        <v>28.1254422276334</v>
       </c>
       <c r="C15">
-        <v>14.2125602379832</v>
+        <v>19.41149562586244</v>
       </c>
       <c r="D15">
-        <v>2.559309850377381</v>
+        <v>3.087405061261424</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.94513715402955</v>
+        <v>48.04385857342843</v>
       </c>
       <c r="G15">
-        <v>25.06871769224031</v>
+        <v>2.049349670104392</v>
       </c>
       <c r="H15">
-        <v>25.27548191887726</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>20.45054564207053</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.392012203856727</v>
       </c>
       <c r="K15">
-        <v>22.71479101628956</v>
+        <v>24.4553226842445</v>
       </c>
       <c r="L15">
-        <v>39.83937167680042</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19.52283263272658</v>
+      </c>
+      <c r="N15">
+        <v>14.18012181247038</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.70013166363478</v>
+        <v>27.1195335866497</v>
       </c>
       <c r="C16">
-        <v>13.76604754389019</v>
+        <v>18.70833188278582</v>
       </c>
       <c r="D16">
-        <v>2.643073417785374</v>
+        <v>3.055741953924239</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.88072928107358</v>
+        <v>46.83565321629625</v>
       </c>
       <c r="G16">
-        <v>24.19217540661846</v>
+        <v>2.057775151201075</v>
       </c>
       <c r="H16">
-        <v>24.55349608412969</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>19.98055370224368</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.367040198969469</v>
       </c>
       <c r="K16">
-        <v>21.96505243384615</v>
+        <v>23.57537366146917</v>
       </c>
       <c r="L16">
-        <v>38.2686248132452</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>18.8342321492296</v>
+      </c>
+      <c r="N16">
+        <v>14.27614841149632</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.10746175258904</v>
+        <v>26.49260432344424</v>
       </c>
       <c r="C17">
-        <v>13.48646973722608</v>
+        <v>18.27025754641853</v>
       </c>
       <c r="D17">
-        <v>2.693656520839468</v>
+        <v>3.036579547013153</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.2294034454757</v>
+        <v>46.09825296954826</v>
       </c>
       <c r="G17">
-        <v>23.66859639517498</v>
+        <v>2.062947582463726</v>
       </c>
       <c r="H17">
-        <v>24.11499963744018</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>19.7001710414633</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.352871665312193</v>
       </c>
       <c r="K17">
-        <v>21.49684611766975</v>
+        <v>23.02669148421761</v>
       </c>
       <c r="L17">
-        <v>37.29883248896733</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>18.49826395989147</v>
+      </c>
+      <c r="N17">
+        <v>14.33715013834743</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.76264145860666</v>
+        <v>26.1282954260565</v>
       </c>
       <c r="C18">
-        <v>13.32356287754094</v>
+        <v>18.01574333253025</v>
       </c>
       <c r="D18">
-        <v>2.722491336571014</v>
+        <v>3.02564998108055</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.85528884819454</v>
+        <v>45.67545301357988</v>
       </c>
       <c r="G18">
-        <v>23.36751594394795</v>
+        <v>2.065925753683458</v>
       </c>
       <c r="H18">
-        <v>23.86433171245634</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>19.54171529032337</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.345131392211034</v>
       </c>
       <c r="K18">
-        <v>21.22443005702914</v>
+        <v>22.70775015486147</v>
       </c>
       <c r="L18">
-        <v>36.73829534498733</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>18.30438273771154</v>
+      </c>
+      <c r="N18">
+        <v>14.3729679430249</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.6452055138322</v>
+        <v>26.00429950323623</v>
       </c>
       <c r="C19">
-        <v>13.26804253665613</v>
+        <v>17.9291247324058</v>
       </c>
       <c r="D19">
-        <v>2.732212974695</v>
+        <v>3.021964895654685</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.72870026735465</v>
+        <v>45.53252466834291</v>
       </c>
       <c r="G19">
-        <v>23.26557928697413</v>
+        <v>2.066934808500141</v>
       </c>
       <c r="H19">
-        <v>23.77971855518711</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>19.48853873882097</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.342579660894708</v>
       </c>
       <c r="K19">
-        <v>21.13165245527796</v>
+        <v>22.59917730084407</v>
       </c>
       <c r="L19">
-        <v>36.54799590863023</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>18.23862739707762</v>
+      </c>
+      <c r="N19">
+        <v>14.38521746366224</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.17095695110305</v>
+        <v>26.55972440736762</v>
       </c>
       <c r="C20">
-        <v>13.51644824327504</v>
+        <v>18.31715299642013</v>
       </c>
       <c r="D20">
-        <v>2.688299465542198</v>
+        <v>3.03860979627613</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.29868343426862</v>
+        <v>46.1766113543969</v>
       </c>
       <c r="G20">
-        <v>23.72432327911798</v>
+        <v>2.062396683457687</v>
       </c>
       <c r="H20">
-        <v>24.16151697456409</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>19.72972487579187</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.35433728564134</v>
       </c>
       <c r="K20">
-        <v>21.54700830077032</v>
+        <v>23.08544463763279</v>
       </c>
       <c r="L20">
-        <v>37.4023420340998</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>18.53409458880152</v>
+      </c>
+      <c r="N20">
+        <v>14.33057990904215</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.89124596095305</v>
+        <v>28.38219427466846</v>
       </c>
       <c r="C21">
-        <v>14.32611126739191</v>
+        <v>19.59103525212923</v>
       </c>
       <c r="D21">
-        <v>2.537404050744469</v>
+        <v>3.095664558757004</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.22055273188357</v>
+        <v>48.35702902780569</v>
       </c>
       <c r="G21">
-        <v>25.30277861347655</v>
+        <v>2.047173984623754</v>
       </c>
       <c r="H21">
-        <v>25.46332732069155</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>20.57443767667153</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.398827112408805</v>
       </c>
       <c r="K21">
-        <v>22.90587155399518</v>
+        <v>24.67985187357393</v>
       </c>
       <c r="L21">
-        <v>40.24340257862085</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>19.70116956489345</v>
+      </c>
+      <c r="N21">
+        <v>14.15600949710811</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.98313860996199</v>
+        <v>29.54246209352212</v>
       </c>
       <c r="C22">
-        <v>14.83705720829008</v>
+        <v>20.40273711292208</v>
       </c>
       <c r="D22">
-        <v>2.43566153953962</v>
+        <v>3.133870539411797</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.58527018643963</v>
+        <v>49.79553251189611</v>
       </c>
       <c r="G22">
-        <v>26.37207240177926</v>
+        <v>2.037213248158912</v>
       </c>
       <c r="H22">
-        <v>26.32986495633089</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>21.15399523690568</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.431853158333022</v>
       </c>
       <c r="K22">
-        <v>23.7679906837256</v>
+        <v>25.69418951171048</v>
       </c>
       <c r="L22">
-        <v>42.08642621157307</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>20.5064874249668</v>
+      </c>
+      <c r="N22">
+        <v>14.04928376993347</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.40320216992295</v>
+        <v>28.92590493807559</v>
       </c>
       <c r="C23">
-        <v>14.56599679721025</v>
+        <v>19.97132889587336</v>
       </c>
       <c r="D23">
-        <v>2.490293297961915</v>
+        <v>3.113389802802566</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.83724716910159</v>
+        <v>49.02644004686839</v>
       </c>
       <c r="G23">
-        <v>25.8015047535252</v>
+        <v>2.042532648288025</v>
       </c>
       <c r="H23">
-        <v>25.86581786230584</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>20.8420238681015</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.413849344978273</v>
       </c>
       <c r="K23">
-        <v>23.31014329416561</v>
+        <v>25.15523922483191</v>
       </c>
       <c r="L23">
-        <v>41.10344869781865</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>20.078665508473</v>
+      </c>
+      <c r="N23">
+        <v>14.10552540806946</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.14226352728663</v>
+        <v>26.52939152306556</v>
       </c>
       <c r="C24">
-        <v>13.50290173705718</v>
+        <v>18.29595986606569</v>
       </c>
       <c r="D24">
-        <v>2.690722148405901</v>
+        <v>3.037691650062814</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.2673609109687</v>
+        <v>46.14118198820446</v>
       </c>
       <c r="G24">
-        <v>23.69912938886979</v>
+        <v>2.062645730553201</v>
       </c>
       <c r="H24">
-        <v>24.14048205259843</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>19.71635507776731</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.353673419212462</v>
       </c>
       <c r="K24">
-        <v>21.52434008182912</v>
+        <v>23.05889325104729</v>
       </c>
       <c r="L24">
-        <v>37.3555547911718</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>18.51789783326976</v>
+      </c>
+      <c r="N24">
+        <v>14.33354799157767</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.55208844714149</v>
+        <v>23.80141622073687</v>
       </c>
       <c r="C25">
-        <v>12.27564261863923</v>
+        <v>16.39074098520151</v>
       </c>
       <c r="D25">
-        <v>2.89731177564298</v>
+        <v>2.959537879899527</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.54558879082708</v>
+        <v>43.08006464001512</v>
       </c>
       <c r="G25">
-        <v>21.5019477531071</v>
+        <v>2.084477299400669</v>
       </c>
       <c r="H25">
-        <v>22.33824246019141</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>18.60884597896254</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.304261574358088</v>
       </c>
       <c r="K25">
-        <v>19.47823791932792</v>
+        <v>20.66849644776055</v>
       </c>
       <c r="L25">
-        <v>33.20439182749705</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>17.09192528905662</v>
+      </c>
+      <c r="N25">
+        <v>14.60714144002696</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.70989341403726</v>
+        <v>13.19135023179689</v>
       </c>
       <c r="C2">
-        <v>14.89550369456989</v>
+        <v>7.942869852284323</v>
       </c>
       <c r="D2">
-        <v>2.904657612686211</v>
+        <v>9.878771692124479</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.86730338863094</v>
+        <v>23.24999167162915</v>
       </c>
       <c r="G2">
-        <v>2.100848018553321</v>
+        <v>2.093663991955144</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>13.55973742526583</v>
       </c>
       <c r="J2">
-        <v>6.279762456694257</v>
+        <v>8.302295549926772</v>
       </c>
       <c r="K2">
-        <v>18.78748901518835</v>
+        <v>11.93118377878559</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.02201060786513</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14.82883797977972</v>
+        <v>12.12060621386076</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>15.41632216833472</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.32193877725011</v>
+        <v>12.32848289493499</v>
       </c>
       <c r="C3">
-        <v>13.82125745077022</v>
+        <v>7.435538042637183</v>
       </c>
       <c r="D3">
-        <v>2.869024399509664</v>
+        <v>9.350245339694718</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>39.39460230500596</v>
+        <v>22.79955415926019</v>
       </c>
       <c r="G3">
-        <v>2.112202755863899</v>
+        <v>2.098224167463914</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>13.6924383440063</v>
       </c>
       <c r="J3">
-        <v>6.269926611232719</v>
+        <v>8.027916223501629</v>
       </c>
       <c r="K3">
-        <v>17.58851933054884</v>
+        <v>11.20379873245082</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.28631882984528</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>14.99034812930484</v>
+        <v>12.30875205676528</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>15.39575237883763</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.43999476145749</v>
+        <v>11.76754329120639</v>
       </c>
       <c r="C4">
-        <v>13.14326555535722</v>
+        <v>7.106467528278271</v>
       </c>
       <c r="D4">
-        <v>2.847896064684804</v>
+        <v>9.014719709186293</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>38.50467699038381</v>
+        <v>22.5385186343306</v>
       </c>
       <c r="G4">
-        <v>2.119324665765178</v>
+        <v>2.101112804042689</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>13.783825866277</v>
       </c>
       <c r="J4">
-        <v>6.267029217644422</v>
+        <v>7.859942758704586</v>
       </c>
       <c r="K4">
-        <v>16.85890356384379</v>
+        <v>10.73255167268246</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.83040851704705</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>15.09470530014114</v>
+        <v>12.42693207168646</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>15.39590945925172</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.07327860343616</v>
+        <v>11.53109964561065</v>
       </c>
       <c r="C5">
-        <v>12.87247980862355</v>
+        <v>6.967944911976128</v>
       </c>
       <c r="D5">
-        <v>2.8394734364676</v>
+        <v>8.875378137988493</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>38.14584033442721</v>
+        <v>22.4360880240182</v>
       </c>
       <c r="G5">
-        <v>2.122267559218027</v>
+        <v>2.102312720535434</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>13.82345777033493</v>
       </c>
       <c r="J5">
-        <v>6.266611031315058</v>
+        <v>7.791710446740454</v>
       </c>
       <c r="K5">
-        <v>16.55625993660536</v>
+        <v>10.5343416037629</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.64376827625457</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>15.13848911192415</v>
+        <v>12.47577831150057</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>15.39907224289349</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.01195000414323</v>
+        <v>11.4913631636595</v>
       </c>
       <c r="C6">
-        <v>12.82713513595786</v>
+        <v>6.944676079257103</v>
       </c>
       <c r="D6">
-        <v>2.838086155698534</v>
+        <v>8.852087956255444</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>38.08649316535082</v>
+        <v>22.41931849798883</v>
       </c>
       <c r="G6">
-        <v>2.122758761128333</v>
+        <v>2.102513354806296</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>13.83018017092411</v>
       </c>
       <c r="J6">
-        <v>6.266586865257423</v>
+        <v>7.780396540364241</v>
       </c>
       <c r="K6">
-        <v>16.50569157963781</v>
+        <v>10.50105697879696</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.61273191539784</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>15.1458340573811</v>
+        <v>12.48393121200823</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>15.39978113655084</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.43507845430372</v>
+        <v>11.76438637159114</v>
       </c>
       <c r="C7">
-        <v>13.13963921504133</v>
+        <v>7.104617279781995</v>
       </c>
       <c r="D7">
-        <v>2.847781716860257</v>
+        <v>9.01285084848797</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>38.49982183609646</v>
+        <v>22.53712121294545</v>
       </c>
       <c r="G7">
-        <v>2.119364186336948</v>
+        <v>2.101128893709356</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>13.78435080511571</v>
       </c>
       <c r="J7">
-        <v>6.267020525852667</v>
+        <v>7.859021542749995</v>
       </c>
       <c r="K7">
-        <v>16.85484325379351</v>
+        <v>10.72990350098045</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.82789458124903</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>15.09529075079391</v>
+        <v>12.42758802369446</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>15.39593972216234</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.23756966111513</v>
+        <v>12.90027818112173</v>
       </c>
       <c r="C8">
-        <v>14.53144891321682</v>
+        <v>7.771582244200345</v>
       </c>
       <c r="D8">
-        <v>2.892214334256373</v>
+        <v>9.698905157136229</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40.35665971389331</v>
+        <v>23.09148258483133</v>
       </c>
       <c r="G8">
-        <v>2.104733825929244</v>
+        <v>2.095218230507601</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>13.60337375408268</v>
       </c>
       <c r="J8">
-        <v>6.275701992903575</v>
+        <v>8.207640655699821</v>
       </c>
       <c r="K8">
-        <v>18.3483782523011</v>
+        <v>11.68550165174132</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.76932256912295</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>14.88341902294637</v>
+        <v>12.1849387555693</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>15.40650619095814</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.7403879904031</v>
+        <v>14.88214645004432</v>
       </c>
       <c r="C9">
-        <v>17.04638805975008</v>
+        <v>8.940681722885788</v>
       </c>
       <c r="D9">
-        <v>2.985432279660069</v>
+        <v>10.9514843656368</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>44.10481138900613</v>
+        <v>24.29968983326689</v>
       </c>
       <c r="G9">
-        <v>2.077088238371203</v>
+        <v>2.084308298882761</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>13.33191197545131</v>
       </c>
       <c r="J9">
-        <v>6.318969240209102</v>
+        <v>8.891463960382364</v>
       </c>
       <c r="K9">
-        <v>21.4918925833927</v>
+        <v>13.36371786395609</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.57551642106482</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>14.5116277086233</v>
+        <v>11.72930475145966</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>15.53378744541177</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.19057418939209</v>
+        <v>16.19073816221724</v>
       </c>
       <c r="C10">
-        <v>18.75798002447981</v>
+        <v>9.716103178877338</v>
       </c>
       <c r="D10">
-        <v>3.057941286358893</v>
+        <v>11.80967797451399</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.91998036180576</v>
+        <v>25.25783120811862</v>
       </c>
       <c r="G10">
-        <v>2.057185238441119</v>
+        <v>2.076674451005454</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>13.19039237895682</v>
       </c>
       <c r="J10">
-        <v>6.368713350344189</v>
+        <v>9.389528635032644</v>
       </c>
       <c r="K10">
-        <v>23.63753454248844</v>
+        <v>14.47772582586223</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.87305544038142</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>14.26928943306745</v>
+        <v>11.40556110130598</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.69903590864304</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.26593547164568</v>
+        <v>16.75456802017287</v>
       </c>
       <c r="C11">
-        <v>19.5097353605464</v>
+        <v>10.05104139267221</v>
       </c>
       <c r="D11">
-        <v>3.091915755755562</v>
+        <v>12.18587061520058</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.21498736741929</v>
+        <v>25.70823281031389</v>
       </c>
       <c r="G11">
-        <v>2.048160419928354</v>
+        <v>2.073276668517158</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>13.14024657693521</v>
       </c>
       <c r="J11">
-        <v>6.395719096473814</v>
+        <v>9.614407185135482</v>
       </c>
       <c r="K11">
-        <v>24.57818715729647</v>
+        <v>14.95891093392185</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.62042366198478</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>14.16690662590373</v>
+        <v>11.26036898244331</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.79116801653705</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.66783125345342</v>
+        <v>16.96359926079772</v>
       </c>
       <c r="C12">
-        <v>19.7908055107611</v>
+        <v>10.17534254779842</v>
       </c>
       <c r="D12">
-        <v>3.10493694164483</v>
+        <v>12.32624293410698</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.70765747431607</v>
+        <v>25.88081303708308</v>
       </c>
       <c r="G12">
-        <v>2.044741442320626</v>
+        <v>2.072000103544579</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13.12345059210106</v>
       </c>
       <c r="J12">
-        <v>6.406619035379298</v>
+        <v>9.699268283157695</v>
       </c>
       <c r="K12">
-        <v>24.92960953259937</v>
+        <v>15.13747000547074</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.89951258803677</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>14.12938778938348</v>
+        <v>11.20566149632283</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.82860232409678</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.58150672499578</v>
+        <v>16.91877911035046</v>
       </c>
       <c r="C13">
-        <v>19.73042774990135</v>
+        <v>10.14868424044123</v>
       </c>
       <c r="D13">
-        <v>3.102125409518599</v>
+        <v>12.29610441462145</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.6014460819756</v>
+        <v>25.84355585094564</v>
       </c>
       <c r="G13">
-        <v>2.045477944655745</v>
+        <v>2.072274596475097</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>13.12696795826495</v>
       </c>
       <c r="J13">
-        <v>6.404240834797781</v>
+        <v>9.68100579540447</v>
       </c>
       <c r="K13">
-        <v>24.85413174603971</v>
+        <v>15.09917625532159</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.83957608148301</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>14.13741032631742</v>
+        <v>11.21743198540885</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.82042528636462</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.29910427017505</v>
+        <v>16.77185464699356</v>
       </c>
       <c r="C14">
-        <v>19.53292976761929</v>
+        <v>10.06131831349754</v>
       </c>
       <c r="D14">
-        <v>3.092983802754013</v>
+        <v>12.19746107356235</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.25547230125659</v>
+        <v>25.72239091711978</v>
       </c>
       <c r="G14">
-        <v>2.047879203414978</v>
+        <v>2.07317144627639</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13.13881994261224</v>
       </c>
       <c r="J14">
-        <v>6.396602075069513</v>
+        <v>9.621394944815153</v>
       </c>
       <c r="K14">
-        <v>24.60719280843054</v>
+        <v>14.9736742006167</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.64346160210017</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>14.16379407887144</v>
+        <v>11.25586283242066</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.79419613764814</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.1254422276334</v>
+        <v>16.68127724526699</v>
       </c>
       <c r="C15">
-        <v>19.41149562586244</v>
+        <v>10.00747520116423</v>
       </c>
       <c r="D15">
-        <v>3.087405061261424</v>
+        <v>12.13676685477251</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.04385857342843</v>
+        <v>25.64843541421966</v>
       </c>
       <c r="G15">
-        <v>2.049349670104392</v>
+        <v>2.073722087647882</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.14636970810106</v>
       </c>
       <c r="J15">
-        <v>6.392012203856727</v>
+        <v>9.58484171383529</v>
       </c>
       <c r="K15">
-        <v>24.4553226842445</v>
+        <v>14.89632532801672</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.52283263272658</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>14.18012181247038</v>
+        <v>11.27943768617849</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.77846468303134</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.1195335866497</v>
+        <v>16.1532613286579</v>
       </c>
       <c r="C16">
-        <v>18.70833188278582</v>
+        <v>9.693858195554929</v>
       </c>
       <c r="D16">
-        <v>3.055741953924239</v>
+        <v>11.78480321936129</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.83565321629625</v>
+        <v>25.2286830655965</v>
       </c>
       <c r="G16">
-        <v>2.057775151201075</v>
+        <v>2.076897954964089</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>13.19396828029652</v>
       </c>
       <c r="J16">
-        <v>6.367040198969469</v>
+        <v>9.374793547787483</v>
       </c>
       <c r="K16">
-        <v>23.57537366146917</v>
+        <v>14.44576634400081</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.8342321492296</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>14.27614841149632</v>
+        <v>11.41508946049287</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.69336538022758</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.49260432344424</v>
+        <v>15.8213149930762</v>
       </c>
       <c r="C17">
-        <v>18.27025754641853</v>
+        <v>9.49692280188539</v>
       </c>
       <c r="D17">
-        <v>3.036579547013153</v>
+        <v>11.56521283923881</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>46.09825296954826</v>
+        <v>24.97485275658597</v>
       </c>
       <c r="G17">
-        <v>2.062947582463726</v>
+        <v>2.078864966286456</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>13.22691569774294</v>
       </c>
       <c r="J17">
-        <v>6.352871665312193</v>
+        <v>9.245461969825676</v>
       </c>
       <c r="K17">
-        <v>23.02669148421761</v>
+        <v>14.16282566276296</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.49826395989147</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>14.33715013834743</v>
+        <v>11.49882255684155</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>15.64558100792315</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.1282954260565</v>
+        <v>15.6274247279992</v>
       </c>
       <c r="C18">
-        <v>18.01574333253025</v>
+        <v>9.381973048418606</v>
       </c>
       <c r="D18">
-        <v>3.02564998108055</v>
+        <v>11.4375747540954</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.67545301357988</v>
+        <v>24.83022857840266</v>
       </c>
       <c r="G18">
-        <v>2.065925753683458</v>
+        <v>2.080003430857875</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.24719656365918</v>
       </c>
       <c r="J18">
-        <v>6.345131392211034</v>
+        <v>9.170916959697839</v>
       </c>
       <c r="K18">
-        <v>22.70775015486147</v>
+        <v>13.99767593951191</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.30438273771154</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>14.3729679430249</v>
+        <v>11.54718105724055</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>15.619686886836</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.00429950323623</v>
+        <v>15.56126652093021</v>
       </c>
       <c r="C19">
-        <v>17.9291247324058</v>
+        <v>9.342764091784336</v>
       </c>
       <c r="D19">
-        <v>3.021964895654685</v>
+        <v>11.39413081898845</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.53252466834291</v>
+        <v>24.7814991421946</v>
       </c>
       <c r="G19">
-        <v>2.066934808500141</v>
+        <v>2.080390133086685</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.25428746111333</v>
       </c>
       <c r="J19">
-        <v>6.342579660894708</v>
+        <v>9.145652094214149</v>
       </c>
       <c r="K19">
-        <v>22.59917730084407</v>
+        <v>13.94134457980693</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.23862739707762</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>14.38521746366224</v>
+        <v>11.56358908030533</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.61118936802399</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.55972440736762</v>
+        <v>15.85695764640722</v>
       </c>
       <c r="C20">
-        <v>18.31715299642013</v>
+        <v>9.518060357692926</v>
       </c>
       <c r="D20">
-        <v>3.03860979627613</v>
+        <v>11.58872717547319</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.1766113543969</v>
+        <v>25.00173190304077</v>
       </c>
       <c r="G20">
-        <v>2.062396683457687</v>
+        <v>2.078654845318065</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>13.22326966018834</v>
       </c>
       <c r="J20">
-        <v>6.35433728564134</v>
+        <v>9.259246183875382</v>
       </c>
       <c r="K20">
-        <v>23.08544463763279</v>
+        <v>14.19319442545379</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.53409458880152</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>14.33057990904215</v>
+        <v>11.48988877229432</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.65050236893946</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.38219427466846</v>
+        <v>16.81513111348702</v>
       </c>
       <c r="C21">
-        <v>19.59103525212923</v>
+        <v>10.08704830545934</v>
       </c>
       <c r="D21">
-        <v>3.095664558757004</v>
+        <v>12.22649181910779</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.35702902780569</v>
+        <v>25.75792560856906</v>
       </c>
       <c r="G21">
-        <v>2.047173984623754</v>
+        <v>2.072907751131168</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.13527800308131</v>
       </c>
       <c r="J21">
-        <v>6.398827112408805</v>
+        <v>9.638912483326614</v>
       </c>
       <c r="K21">
-        <v>24.67985187357393</v>
+        <v>15.01063618679378</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.70116956489345</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>14.15600949710811</v>
+        <v>11.24456754596923</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.801830347072</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.54246209352212</v>
+        <v>17.41526881310432</v>
       </c>
       <c r="C22">
-        <v>20.40273711292208</v>
+        <v>10.44416730135053</v>
       </c>
       <c r="D22">
-        <v>3.133870539411797</v>
+        <v>12.63115362812866</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>49.79553251189611</v>
+        <v>26.26390579479378</v>
       </c>
       <c r="G22">
-        <v>2.037213248158912</v>
+        <v>2.069210231213166</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>13.09062665642994</v>
       </c>
       <c r="J22">
-        <v>6.431853158333022</v>
+        <v>9.885306566670431</v>
       </c>
       <c r="K22">
-        <v>25.69418951171048</v>
+        <v>15.52359030137795</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.5064874249668</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>14.04928376993347</v>
+        <v>11.08581788933017</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.9156180191365</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.92590493807559</v>
+        <v>17.09733542696664</v>
       </c>
       <c r="C23">
-        <v>19.97132889587336</v>
+        <v>10.25490569075113</v>
       </c>
       <c r="D23">
-        <v>3.113389802802566</v>
+        <v>12.41629998184976</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.02644004686839</v>
+        <v>25.99279917494074</v>
       </c>
       <c r="G23">
-        <v>2.042532648288025</v>
+        <v>2.071178542822437</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13.1132313209301</v>
       </c>
       <c r="J23">
-        <v>6.413849344978273</v>
+        <v>9.753975256321596</v>
       </c>
       <c r="K23">
-        <v>25.15523922483191</v>
+        <v>15.25175611356854</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.078665508473</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>14.10552540806946</v>
+        <v>11.17040964402645</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.85349100526965</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.52939152306556</v>
+        <v>15.84085310590289</v>
       </c>
       <c r="C24">
-        <v>18.29595986606569</v>
+        <v>9.508509456133824</v>
       </c>
       <c r="D24">
-        <v>3.037691650062814</v>
+        <v>11.57810067857345</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.14118198820446</v>
+        <v>24.98957576703928</v>
       </c>
       <c r="G24">
-        <v>2.062645730553201</v>
+        <v>2.078749817274674</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>13.22491387422973</v>
       </c>
       <c r="J24">
-        <v>6.353673419212462</v>
+        <v>9.2530149302043</v>
       </c>
       <c r="K24">
-        <v>23.05889325104729</v>
+        <v>14.17947244466108</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.51789783326976</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>14.33354799157767</v>
+        <v>11.49392705152656</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.64827251544285</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.80141622073687</v>
+        <v>14.37207293705587</v>
       </c>
       <c r="C25">
-        <v>16.39074098520151</v>
+        <v>8.639170460133204</v>
       </c>
       <c r="D25">
-        <v>2.959537879899527</v>
+        <v>10.62321548498128</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>43.08006464001512</v>
+        <v>23.96019735273167</v>
       </c>
       <c r="G25">
-        <v>2.084477299400669</v>
+        <v>2.087190173632369</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13.39571430961431</v>
       </c>
       <c r="J25">
-        <v>6.304261574358088</v>
+        <v>8.706944180703214</v>
       </c>
       <c r="K25">
-        <v>20.66849644776055</v>
+        <v>12.93066464348737</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.09192528905662</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>14.60714144002696</v>
+        <v>11.85053400736663</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>15.48723506449091</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.19135023179689</v>
+        <v>10.06279926495191</v>
       </c>
       <c r="C2">
-        <v>7.942869852284323</v>
+        <v>5.113490353836027</v>
       </c>
       <c r="D2">
-        <v>9.878771692124479</v>
+        <v>10.82885608225241</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.24999167162915</v>
+        <v>32.68360632238937</v>
       </c>
       <c r="G2">
-        <v>2.093663991955144</v>
+        <v>3.650477257462309</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.55973742526583</v>
+        <v>21.86596526605257</v>
       </c>
       <c r="J2">
-        <v>8.302295549926772</v>
+        <v>11.36552556472787</v>
       </c>
       <c r="K2">
-        <v>11.93118377878559</v>
+        <v>10.22771242244629</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.12060621386076</v>
+        <v>18.68885310334556</v>
       </c>
       <c r="O2">
-        <v>15.41632216833472</v>
+        <v>23.95311639885094</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.32848289493499</v>
+        <v>9.782878767430086</v>
       </c>
       <c r="C3">
-        <v>7.435538042637183</v>
+        <v>4.909417274066606</v>
       </c>
       <c r="D3">
-        <v>9.350245339694718</v>
+        <v>10.72922055032913</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.79955415926019</v>
+        <v>32.71302454322903</v>
       </c>
       <c r="G3">
-        <v>2.098224167463914</v>
+        <v>3.652215704730075</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.6924383440063</v>
+        <v>21.95090625029659</v>
       </c>
       <c r="J3">
-        <v>8.027916223501629</v>
+        <v>11.34658089783536</v>
       </c>
       <c r="K3">
-        <v>11.20379873245082</v>
+        <v>10.04100689154385</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.30875205676528</v>
+        <v>18.74582830612414</v>
       </c>
       <c r="O3">
-        <v>15.39575237883763</v>
+        <v>24.02439165531005</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.76754329120639</v>
+        <v>9.608475668004994</v>
       </c>
       <c r="C4">
-        <v>7.106467528278271</v>
+        <v>4.780336197466132</v>
       </c>
       <c r="D4">
-        <v>9.014719709186293</v>
+        <v>10.66985624810654</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.5385186343306</v>
+        <v>32.73888056914939</v>
       </c>
       <c r="G4">
-        <v>2.101112804042689</v>
+        <v>3.653340024894119</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.783825866277</v>
+        <v>22.00695714460683</v>
       </c>
       <c r="J4">
-        <v>7.859942758704586</v>
+        <v>11.33720381199259</v>
       </c>
       <c r="K4">
-        <v>10.73255167268246</v>
+        <v>9.926196925185042</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.42693207168646</v>
+        <v>18.78246458191811</v>
       </c>
       <c r="O4">
-        <v>15.39590945925172</v>
+        <v>24.07294984911495</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.53109964561065</v>
+        <v>9.536878586286745</v>
       </c>
       <c r="C5">
-        <v>6.967944911976128</v>
+        <v>4.726862936773468</v>
       </c>
       <c r="D5">
-        <v>8.875378137988493</v>
+        <v>10.6461448224804</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.4360880240182</v>
+        <v>32.75137469412402</v>
       </c>
       <c r="G5">
-        <v>2.102312720535434</v>
+        <v>3.653812548495863</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.82345777033493</v>
+        <v>22.03077768942196</v>
       </c>
       <c r="J5">
-        <v>7.791710446740454</v>
+        <v>11.33395241064724</v>
       </c>
       <c r="K5">
-        <v>10.5343416037629</v>
+        <v>9.879428817461976</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.47577831150057</v>
+        <v>18.79781110428691</v>
       </c>
       <c r="O5">
-        <v>15.39907224289349</v>
+        <v>24.09394135343204</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.4913631636595</v>
+        <v>9.524961492605733</v>
       </c>
       <c r="C6">
-        <v>6.944676079257103</v>
+        <v>4.71793357376938</v>
       </c>
       <c r="D6">
-        <v>8.852087956255444</v>
+        <v>10.64223724134963</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.41931849798883</v>
+        <v>32.75356749037652</v>
       </c>
       <c r="G6">
-        <v>2.102513354806296</v>
+        <v>3.653891878932801</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.83018017092411</v>
+        <v>22.03479220805234</v>
       </c>
       <c r="J6">
-        <v>7.780396540364241</v>
+        <v>11.33344700764848</v>
       </c>
       <c r="K6">
-        <v>10.50105697879696</v>
+        <v>9.871665896017211</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.48393121200823</v>
+        <v>18.80038460068913</v>
       </c>
       <c r="O6">
-        <v>15.39978113655084</v>
+        <v>24.09749961168606</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.76438637159114</v>
+        <v>9.607512066026601</v>
       </c>
       <c r="C7">
-        <v>7.104617279781995</v>
+        <v>4.779618457100423</v>
       </c>
       <c r="D7">
-        <v>9.01285084848797</v>
+        <v>10.66953449258374</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.53712121294545</v>
+        <v>32.7390411464833</v>
       </c>
       <c r="G7">
-        <v>2.101128893709356</v>
+        <v>3.653346339334752</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.78435080511571</v>
+        <v>22.00727443214667</v>
       </c>
       <c r="J7">
-        <v>7.859021542749995</v>
+        <v>11.33715765184444</v>
       </c>
       <c r="K7">
-        <v>10.72990350098045</v>
+        <v>9.925566040169162</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.42758802369446</v>
+        <v>18.78266986069381</v>
       </c>
       <c r="O7">
-        <v>15.39593972216234</v>
+        <v>24.07322807718597</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.90027818112173</v>
+        <v>9.966871882755076</v>
       </c>
       <c r="C8">
-        <v>7.771582244200345</v>
+        <v>5.043954793697565</v>
       </c>
       <c r="D8">
-        <v>9.698905157136229</v>
+        <v>10.79414044628624</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.09148258483133</v>
+        <v>32.69213127354919</v>
       </c>
       <c r="G8">
-        <v>2.095218230507601</v>
+        <v>3.651064889903689</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.60337375408268</v>
+        <v>21.89444382048028</v>
       </c>
       <c r="J8">
-        <v>8.207640655699821</v>
+        <v>11.35852722182764</v>
       </c>
       <c r="K8">
-        <v>11.68550165174132</v>
+        <v>10.16340838278393</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.1849387555693</v>
+        <v>18.70815575058905</v>
       </c>
       <c r="O8">
-        <v>15.40650619095814</v>
+        <v>23.97669570907831</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.88214645004432</v>
+        <v>10.64700648483655</v>
       </c>
       <c r="C9">
-        <v>8.940681722885788</v>
+        <v>5.529319809781674</v>
       </c>
       <c r="D9">
-        <v>10.9514843656368</v>
+        <v>11.05176503879786</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.29968983326689</v>
+        <v>32.66203405698226</v>
       </c>
       <c r="G9">
-        <v>2.084308298882761</v>
+        <v>3.647040475204993</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.33191197545131</v>
+        <v>21.70412625260142</v>
       </c>
       <c r="J9">
-        <v>8.891463960382364</v>
+        <v>11.41818417709071</v>
       </c>
       <c r="K9">
-        <v>13.36371786395609</v>
+        <v>10.62583158267194</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.72930475145966</v>
+        <v>18.57509551920072</v>
       </c>
       <c r="O9">
-        <v>15.53378744541177</v>
+        <v>23.82553094098418</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.19073816221724</v>
+        <v>11.12622053703642</v>
       </c>
       <c r="C10">
-        <v>9.716103178877338</v>
+        <v>5.862349012896509</v>
       </c>
       <c r="D10">
-        <v>11.80967797451399</v>
+        <v>11.24760462573252</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25.25783120811862</v>
+        <v>32.67768204094001</v>
       </c>
       <c r="G10">
-        <v>2.076674451005454</v>
+        <v>3.644354926806304</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.19039237895682</v>
+        <v>21.58319604744677</v>
       </c>
       <c r="J10">
-        <v>9.389528635032644</v>
+        <v>11.47261988836791</v>
       </c>
       <c r="K10">
-        <v>14.47772582586223</v>
+        <v>10.95975890334442</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.40556110130598</v>
+        <v>18.48521898965278</v>
       </c>
       <c r="O10">
-        <v>15.69903590864304</v>
+        <v>23.73783609148637</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.75456802017287</v>
+        <v>11.33876476992045</v>
       </c>
       <c r="C11">
-        <v>10.05104139267221</v>
+        <v>6.008155001147217</v>
       </c>
       <c r="D11">
-        <v>12.18587061520058</v>
+        <v>11.33778819698629</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.70823281031389</v>
+        <v>32.69298692661508</v>
       </c>
       <c r="G11">
-        <v>2.073276668517158</v>
+        <v>3.64319148387096</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.14024657693521</v>
+        <v>21.53229234860199</v>
       </c>
       <c r="J11">
-        <v>9.614407185135482</v>
+        <v>11.49963196159948</v>
       </c>
       <c r="K11">
-        <v>14.95891093392185</v>
+        <v>11.10973506914537</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.26036898244331</v>
+        <v>18.44602647883654</v>
       </c>
       <c r="O11">
-        <v>15.79116801653705</v>
+        <v>23.70303825612419</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.96359926079772</v>
+        <v>11.41839100667139</v>
       </c>
       <c r="C12">
-        <v>10.17534254779842</v>
+        <v>6.062509987869881</v>
       </c>
       <c r="D12">
-        <v>12.32624293410698</v>
+        <v>11.37206756898328</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.88081303708308</v>
+        <v>32.69995684890924</v>
       </c>
       <c r="G12">
-        <v>2.072000103544579</v>
+        <v>3.642759245548089</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.12345059210106</v>
+        <v>21.51360792373008</v>
       </c>
       <c r="J12">
-        <v>9.699268283157695</v>
+        <v>11.51017876175495</v>
       </c>
       <c r="K12">
-        <v>15.13747000547074</v>
+        <v>11.16619708719788</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.20566149632283</v>
+        <v>18.43142745902227</v>
       </c>
       <c r="O12">
-        <v>15.82860232409678</v>
+        <v>23.6905955918881</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.91877911035046</v>
+        <v>11.40128143231928</v>
       </c>
       <c r="C13">
-        <v>10.14868424044123</v>
+        <v>6.050842434870826</v>
       </c>
       <c r="D13">
-        <v>12.29610441462145</v>
+        <v>11.36467961984478</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.84355585094564</v>
+        <v>32.69840358161505</v>
       </c>
       <c r="G13">
-        <v>2.072274596475097</v>
+        <v>3.642851965868363</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.12696795826495</v>
+        <v>21.51760561725431</v>
       </c>
       <c r="J13">
-        <v>9.68100579540447</v>
+        <v>11.50789327210602</v>
       </c>
       <c r="K13">
-        <v>15.09917625532159</v>
+        <v>11.15405250752637</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.21743198540885</v>
+        <v>18.43456085846041</v>
       </c>
       <c r="O13">
-        <v>15.82042528636462</v>
+        <v>23.69324264595814</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.77185464699356</v>
+        <v>11.34533330442906</v>
       </c>
       <c r="C14">
-        <v>10.06131831349754</v>
+        <v>6.012644236064682</v>
       </c>
       <c r="D14">
-        <v>12.19746107356235</v>
+        <v>11.34060596401259</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.72239091711978</v>
+        <v>32.69353683202475</v>
       </c>
       <c r="G14">
-        <v>2.07317144627639</v>
+        <v>3.643155756605084</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.13881994261224</v>
+        <v>21.53074330554075</v>
       </c>
       <c r="J14">
-        <v>9.621394944815153</v>
+        <v>11.50049331462922</v>
       </c>
       <c r="K14">
-        <v>14.9736742006167</v>
+        <v>11.11438715620111</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.25586283242066</v>
+        <v>18.44482055814218</v>
       </c>
       <c r="O14">
-        <v>15.79419613764814</v>
+        <v>23.70199985954449</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.68127724526699</v>
+        <v>11.31094938828516</v>
       </c>
       <c r="C15">
-        <v>10.00747520116423</v>
+        <v>5.989133827415016</v>
       </c>
       <c r="D15">
-        <v>12.13676685477251</v>
+        <v>11.3258760796078</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.64843541421966</v>
+        <v>32.69070863126319</v>
       </c>
       <c r="G15">
-        <v>2.073722087647882</v>
+        <v>3.643342921109891</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.14636970810106</v>
+        <v>21.53886760495548</v>
       </c>
       <c r="J15">
-        <v>9.58484171383529</v>
+        <v>11.49600185885445</v>
       </c>
       <c r="K15">
-        <v>14.89632532801672</v>
+        <v>11.09004638310663</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.27943768617849</v>
+        <v>18.45113644739659</v>
       </c>
       <c r="O15">
-        <v>15.77846468303134</v>
+        <v>23.70745961512532</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.1532613286579</v>
+        <v>11.11221392619229</v>
       </c>
       <c r="C16">
-        <v>9.693858195554929</v>
+        <v>5.852702162821713</v>
       </c>
       <c r="D16">
-        <v>11.78480321936129</v>
+        <v>11.24173050306997</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.2286830655965</v>
+        <v>32.67684633817422</v>
       </c>
       <c r="G16">
-        <v>2.076897954964089</v>
+        <v>3.644432128723653</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.19396828029652</v>
+        <v>21.58660547075502</v>
       </c>
       <c r="J16">
-        <v>9.374793547787483</v>
+        <v>11.47089938175064</v>
       </c>
       <c r="K16">
-        <v>14.44576634400081</v>
+        <v>10.94991416895428</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.41508946049287</v>
+        <v>18.48781428229047</v>
       </c>
       <c r="O16">
-        <v>15.69336538022758</v>
+        <v>23.74021289879857</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.8213149930762</v>
+        <v>10.98884354225925</v>
       </c>
       <c r="C17">
-        <v>9.49692280188539</v>
+        <v>5.767517718785557</v>
       </c>
       <c r="D17">
-        <v>11.56521283923881</v>
+        <v>11.19037001086743</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.97485275658597</v>
+        <v>32.67043728180671</v>
       </c>
       <c r="G17">
-        <v>2.078864966286456</v>
+        <v>3.645115206500543</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.22691569774294</v>
+        <v>21.61694395944298</v>
       </c>
       <c r="J17">
-        <v>9.245461969825676</v>
+        <v>11.45607207485737</v>
       </c>
       <c r="K17">
-        <v>14.16282566276296</v>
+        <v>10.86341469187485</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.49882255684155</v>
+        <v>18.51074772992912</v>
       </c>
       <c r="O17">
-        <v>15.64558100792315</v>
+        <v>23.76161229794557</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.6274247279992</v>
+        <v>10.91737498322429</v>
       </c>
       <c r="C18">
-        <v>9.381973048418606</v>
+        <v>5.717988260381146</v>
       </c>
       <c r="D18">
-        <v>11.4375747540954</v>
+        <v>11.16093361516276</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.83022857840266</v>
+        <v>32.66752175641955</v>
       </c>
       <c r="G18">
-        <v>2.080003430857875</v>
+        <v>3.645513577732604</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.24719656365918</v>
+        <v>21.63478046641204</v>
       </c>
       <c r="J18">
-        <v>9.170916959697839</v>
+        <v>11.44775584164962</v>
       </c>
       <c r="K18">
-        <v>13.99767593951191</v>
+        <v>10.81348392177067</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.54718105724055</v>
+        <v>18.52409783838412</v>
       </c>
       <c r="O18">
-        <v>15.619686886836</v>
+        <v>23.77440012763396</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.56126652093021</v>
+        <v>10.89309192629546</v>
       </c>
       <c r="C19">
-        <v>9.342764091784336</v>
+        <v>5.701128110098941</v>
       </c>
       <c r="D19">
-        <v>11.39413081898845</v>
+        <v>11.15098583097672</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.7814991421946</v>
+        <v>32.66666706678105</v>
       </c>
       <c r="G19">
-        <v>2.080390133086685</v>
+        <v>3.64564940233468</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.25428746111333</v>
+        <v>21.64088597282665</v>
       </c>
       <c r="J19">
-        <v>9.145652094214149</v>
+        <v>11.44497668669209</v>
       </c>
       <c r="K19">
-        <v>13.94134457980693</v>
+        <v>10.79654922414116</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.56358908030533</v>
+        <v>18.52864536539993</v>
       </c>
       <c r="O19">
-        <v>15.61118936802399</v>
+        <v>23.77881215592108</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.85695764640722</v>
+        <v>11.00202979837806</v>
       </c>
       <c r="C20">
-        <v>9.518060357692926</v>
+        <v>5.776641285910136</v>
       </c>
       <c r="D20">
-        <v>11.58872717547319</v>
+        <v>11.19582678424006</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.00173190304077</v>
+        <v>32.67103978040826</v>
       </c>
       <c r="G20">
-        <v>2.078654845318065</v>
+        <v>3.645041924534057</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.22326966018834</v>
+        <v>21.61367435581533</v>
       </c>
       <c r="J20">
-        <v>9.259246183875382</v>
+        <v>11.45762855992034</v>
       </c>
       <c r="K20">
-        <v>14.19319442545379</v>
+        <v>10.87264158423158</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.48988877229432</v>
+        <v>18.50828993628544</v>
       </c>
       <c r="O20">
-        <v>15.65050236893946</v>
+        <v>23.7592846589611</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.81513111348702</v>
+        <v>11.36179052322397</v>
       </c>
       <c r="C21">
-        <v>10.08704830545934</v>
+        <v>6.023887567032677</v>
       </c>
       <c r="D21">
-        <v>12.22649181910779</v>
+        <v>11.34767371260802</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.75792560856906</v>
+        <v>32.69493447261705</v>
       </c>
       <c r="G21">
-        <v>2.072907751131168</v>
+        <v>3.643066300088703</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.13527800308131</v>
+        <v>21.5268683816235</v>
       </c>
       <c r="J21">
-        <v>9.638912483326614</v>
+        <v>11.50265827921002</v>
       </c>
       <c r="K21">
-        <v>15.01063618679378</v>
+        <v>11.12604721708121</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.24456754596923</v>
+        <v>18.44180046737788</v>
       </c>
       <c r="O21">
-        <v>15.801830347072</v>
+        <v>23.69940770474247</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.41526881310432</v>
+        <v>11.59187418532195</v>
       </c>
       <c r="C22">
-        <v>10.44416730135053</v>
+        <v>6.180458096496293</v>
       </c>
       <c r="D22">
-        <v>12.63115362812866</v>
+        <v>11.4476520402183</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.26390579479378</v>
+        <v>32.71739365312097</v>
       </c>
       <c r="G22">
-        <v>2.069210231213166</v>
+        <v>3.641823663519121</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.09062665642994</v>
+        <v>21.47358500891368</v>
       </c>
       <c r="J22">
-        <v>9.885306566670431</v>
+        <v>11.53393801689753</v>
       </c>
       <c r="K22">
-        <v>15.52359030137795</v>
+        <v>11.2897121956136</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.08581788933017</v>
+        <v>18.39975776526132</v>
       </c>
       <c r="O22">
-        <v>15.9156180191365</v>
+        <v>23.66455677254643</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.09733542696664</v>
+        <v>11.46955856410994</v>
       </c>
       <c r="C23">
-        <v>10.25490569075113</v>
+        <v>6.097364567313408</v>
       </c>
       <c r="D23">
-        <v>12.41629998184976</v>
+        <v>11.39423368629805</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.99279917494074</v>
+        <v>32.70478189146577</v>
       </c>
       <c r="G23">
-        <v>2.071178542822437</v>
+        <v>3.642482453215484</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.1132313209301</v>
+        <v>21.50170740739365</v>
       </c>
       <c r="J23">
-        <v>9.753975256321596</v>
+        <v>11.51707605696725</v>
       </c>
       <c r="K23">
-        <v>15.25175611356854</v>
+        <v>11.20255642673157</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.17040964402645</v>
+        <v>18.4220679032281</v>
       </c>
       <c r="O23">
-        <v>15.85349100526965</v>
+        <v>23.6827649752098</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.84085310590289</v>
+        <v>10.996069972132</v>
       </c>
       <c r="C24">
-        <v>9.508509456133824</v>
+        <v>5.772518249247784</v>
       </c>
       <c r="D24">
-        <v>11.57810067857345</v>
+        <v>11.19335949000513</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.98957576703928</v>
+        <v>32.67076499478655</v>
       </c>
       <c r="G24">
-        <v>2.078749817274674</v>
+        <v>3.645075037675493</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.22491387422973</v>
+        <v>21.61515131481111</v>
       </c>
       <c r="J24">
-        <v>9.2530149302043</v>
+        <v>11.45692422414823</v>
       </c>
       <c r="K24">
-        <v>14.17947244466108</v>
+        <v>10.86847072838273</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.49392705152656</v>
+        <v>18.50940058959709</v>
       </c>
       <c r="O24">
-        <v>15.64827251544285</v>
+        <v>23.76033547383113</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.37207293705587</v>
+        <v>10.46623926721995</v>
       </c>
       <c r="C25">
-        <v>8.639170460133204</v>
+        <v>5.401934839147743</v>
       </c>
       <c r="D25">
-        <v>10.62321548498128</v>
+        <v>10.98080565515455</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.96019735273167</v>
+        <v>32.66354337060575</v>
       </c>
       <c r="G25">
-        <v>2.087190173632369</v>
+        <v>3.648081358543657</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.39571430961431</v>
+        <v>21.75229627664601</v>
       </c>
       <c r="J25">
-        <v>8.706944180703214</v>
+        <v>11.40016550914095</v>
       </c>
       <c r="K25">
-        <v>12.93066464348737</v>
+        <v>10.50151813955274</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.85053400736663</v>
+        <v>18.60970179855409</v>
       </c>
       <c r="O25">
-        <v>15.48723506449091</v>
+        <v>23.8623298062519</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.06279926495191</v>
+        <v>13.19135023179683</v>
       </c>
       <c r="C2">
-        <v>5.113490353836027</v>
+        <v>7.942869852284337</v>
       </c>
       <c r="D2">
-        <v>10.82885608225241</v>
+        <v>9.878771692124495</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>32.68360632238937</v>
+        <v>23.24999167162928</v>
       </c>
       <c r="G2">
-        <v>3.650477257462309</v>
+        <v>2.093663991955145</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.86596526605257</v>
+        <v>13.55973742526588</v>
       </c>
       <c r="J2">
-        <v>11.36552556472787</v>
+        <v>8.302295549926757</v>
       </c>
       <c r="K2">
-        <v>10.22771242244629</v>
+        <v>11.93118377878553</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.68885310334556</v>
+        <v>12.12060621386072</v>
       </c>
       <c r="O2">
-        <v>23.95311639885094</v>
+        <v>15.41632216833478</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.782878767430086</v>
+        <v>12.32848289493497</v>
       </c>
       <c r="C3">
-        <v>4.909417274066606</v>
+        <v>7.435538042637183</v>
       </c>
       <c r="D3">
-        <v>10.72922055032913</v>
+        <v>9.35024533969476</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>32.71302454322903</v>
+        <v>22.79955415926007</v>
       </c>
       <c r="G3">
-        <v>3.652215704730075</v>
+        <v>2.098224167463914</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.95090625029659</v>
+        <v>13.6924383440062</v>
       </c>
       <c r="J3">
-        <v>11.34658089783536</v>
+        <v>8.027916223501675</v>
       </c>
       <c r="K3">
-        <v>10.04100689154385</v>
+        <v>11.20379873245086</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.74582830612414</v>
+        <v>12.30875205676521</v>
       </c>
       <c r="O3">
-        <v>24.02439165531005</v>
+        <v>15.39575237883749</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.608475668004994</v>
+        <v>11.76754329120641</v>
       </c>
       <c r="C4">
-        <v>4.780336197466132</v>
+        <v>7.106467528278227</v>
       </c>
       <c r="D4">
-        <v>10.66985624810654</v>
+        <v>9.014719709186348</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.73888056914939</v>
+        <v>22.53851863433072</v>
       </c>
       <c r="G4">
-        <v>3.653340024894119</v>
+        <v>2.101112804042689</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.00695714460683</v>
+        <v>13.78382586627702</v>
       </c>
       <c r="J4">
-        <v>11.33720381199259</v>
+        <v>7.859942758704635</v>
       </c>
       <c r="K4">
-        <v>9.926196925185042</v>
+        <v>10.73255167268246</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.78246458191811</v>
+        <v>12.42693207168646</v>
       </c>
       <c r="O4">
-        <v>24.07294984911495</v>
+        <v>15.39590945925174</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.536878586286745</v>
+        <v>11.53109964561067</v>
       </c>
       <c r="C5">
-        <v>4.726862936773468</v>
+        <v>6.967944911976126</v>
       </c>
       <c r="D5">
-        <v>10.6461448224804</v>
+        <v>8.875378137988477</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.75137469412402</v>
+        <v>22.43608802401823</v>
       </c>
       <c r="G5">
-        <v>3.653812548495863</v>
+        <v>2.102312720535433</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.03077768942196</v>
+        <v>13.82345777033495</v>
       </c>
       <c r="J5">
-        <v>11.33395241064724</v>
+        <v>7.791710446740498</v>
       </c>
       <c r="K5">
-        <v>9.879428817461976</v>
+        <v>10.53434160376291</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.79781110428691</v>
+        <v>12.47577831150064</v>
       </c>
       <c r="O5">
-        <v>24.09394135343204</v>
+        <v>15.39907224289351</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.524961492605733</v>
+        <v>11.49136316365954</v>
       </c>
       <c r="C6">
-        <v>4.71793357376938</v>
+        <v>6.944676079257181</v>
       </c>
       <c r="D6">
-        <v>10.64223724134963</v>
+        <v>8.852087956255398</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.75356749037652</v>
+        <v>22.41931849798866</v>
       </c>
       <c r="G6">
-        <v>3.653891878932801</v>
+        <v>2.102513354806296</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.03479220805234</v>
+        <v>13.83018017092406</v>
       </c>
       <c r="J6">
-        <v>11.33344700764848</v>
+        <v>7.780396540364198</v>
       </c>
       <c r="K6">
-        <v>9.871665896017211</v>
+        <v>10.50105697879698</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.80038460068913</v>
+        <v>12.4839312120082</v>
       </c>
       <c r="O6">
-        <v>24.09749961168606</v>
+        <v>15.39978113655076</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.607512066026601</v>
+        <v>11.76438637159116</v>
       </c>
       <c r="C7">
-        <v>4.779618457100423</v>
+        <v>7.104617279782068</v>
       </c>
       <c r="D7">
-        <v>10.66953449258374</v>
+        <v>9.01285084848787</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.7390411464833</v>
+        <v>22.53712121294518</v>
       </c>
       <c r="G7">
-        <v>3.653346339334752</v>
+        <v>2.101128893709089</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.00727443214667</v>
+        <v>13.78435080511555</v>
       </c>
       <c r="J7">
-        <v>11.33715765184444</v>
+        <v>7.859021542749997</v>
       </c>
       <c r="K7">
-        <v>9.925566040169162</v>
+        <v>10.72990350098052</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.78266986069381</v>
+        <v>12.42758802369433</v>
       </c>
       <c r="O7">
-        <v>24.07322807718597</v>
+        <v>15.39593972216214</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.966871882755076</v>
+        <v>12.90027818112173</v>
       </c>
       <c r="C8">
-        <v>5.043954793697565</v>
+        <v>7.771582244200452</v>
       </c>
       <c r="D8">
-        <v>10.79414044628624</v>
+        <v>9.698905157136254</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>32.69213127354919</v>
+        <v>23.09148258483133</v>
       </c>
       <c r="G8">
-        <v>3.651064889903689</v>
+        <v>2.095218230507598</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.89444382048028</v>
+        <v>13.60337375408268</v>
       </c>
       <c r="J8">
-        <v>11.35852722182764</v>
+        <v>8.207640655699826</v>
       </c>
       <c r="K8">
-        <v>10.16340838278393</v>
+        <v>11.68550165174138</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.70815575058905</v>
+        <v>12.1849387555693</v>
       </c>
       <c r="O8">
-        <v>23.97669570907831</v>
+        <v>15.40650619095806</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.64700648483655</v>
+        <v>14.88214645004431</v>
       </c>
       <c r="C9">
-        <v>5.529319809781674</v>
+        <v>8.940681722885808</v>
       </c>
       <c r="D9">
-        <v>11.05176503879786</v>
+        <v>10.95148436563683</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.66203405698226</v>
+        <v>24.29968983326702</v>
       </c>
       <c r="G9">
-        <v>3.647040475204993</v>
+        <v>2.084308298882896</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.70412625260142</v>
+        <v>13.33191197545135</v>
       </c>
       <c r="J9">
-        <v>11.41818417709071</v>
+        <v>8.891463960382326</v>
       </c>
       <c r="K9">
-        <v>10.62583158267194</v>
+        <v>13.36371786395608</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.57509551920072</v>
+        <v>11.72930475145966</v>
       </c>
       <c r="O9">
-        <v>23.82553094098418</v>
+        <v>15.53378744541181</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.12622053703642</v>
+        <v>16.19073816221716</v>
       </c>
       <c r="C10">
-        <v>5.862349012896509</v>
+        <v>9.716103178877407</v>
       </c>
       <c r="D10">
-        <v>11.24760462573252</v>
+        <v>11.80967797451398</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.67768204094001</v>
+        <v>25.25783120811865</v>
       </c>
       <c r="G10">
-        <v>3.644354926806304</v>
+        <v>2.076674451005587</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.58319604744677</v>
+        <v>13.19039237895692</v>
       </c>
       <c r="J10">
-        <v>11.47261988836791</v>
+        <v>9.389528635032665</v>
       </c>
       <c r="K10">
-        <v>10.95975890334442</v>
+        <v>14.47772582586216</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.48521898965278</v>
+        <v>11.40556110130598</v>
       </c>
       <c r="O10">
-        <v>23.73783609148637</v>
+        <v>15.69903590864309</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.33876476992045</v>
+        <v>16.75456802017289</v>
       </c>
       <c r="C11">
-        <v>6.008155001147217</v>
+        <v>10.05104139267217</v>
       </c>
       <c r="D11">
-        <v>11.33778819698629</v>
+        <v>12.18587061520057</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.69298692661508</v>
+        <v>25.70823281031386</v>
       </c>
       <c r="G11">
-        <v>3.64319148387096</v>
+        <v>2.07327666851756</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.53229234860199</v>
+        <v>13.14024657693515</v>
       </c>
       <c r="J11">
-        <v>11.49963196159948</v>
+        <v>9.614407185135503</v>
       </c>
       <c r="K11">
-        <v>11.10973506914537</v>
+        <v>14.95891093392184</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.44602647883654</v>
+        <v>11.26036898244321</v>
       </c>
       <c r="O11">
-        <v>23.70303825612419</v>
+        <v>15.79116801653703</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.41839100667139</v>
+        <v>16.96359926079776</v>
       </c>
       <c r="C12">
-        <v>6.062509987869881</v>
+        <v>10.1753425477984</v>
       </c>
       <c r="D12">
-        <v>11.37206756898328</v>
+        <v>12.326242934107</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.69995684890924</v>
+        <v>25.88081303708314</v>
       </c>
       <c r="G12">
-        <v>3.642759245548089</v>
+        <v>2.072000103544847</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.51360792373008</v>
+        <v>13.12345059210115</v>
       </c>
       <c r="J12">
-        <v>11.51017876175495</v>
+        <v>9.699268283157734</v>
       </c>
       <c r="K12">
-        <v>11.16619708719788</v>
+        <v>15.13747000547078</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.43142745902227</v>
+        <v>11.20566149632294</v>
       </c>
       <c r="O12">
-        <v>23.6905955918881</v>
+        <v>15.82860232409682</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.40128143231928</v>
+        <v>16.91877911035047</v>
       </c>
       <c r="C13">
-        <v>6.050842434870826</v>
+        <v>10.14868424044133</v>
       </c>
       <c r="D13">
-        <v>11.36467961984478</v>
+        <v>12.29610441462144</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.69840358161505</v>
+        <v>25.84355585094569</v>
       </c>
       <c r="G13">
-        <v>3.642851965868363</v>
+        <v>2.072274596475097</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.51760561725431</v>
+        <v>13.12696795826506</v>
       </c>
       <c r="J13">
-        <v>11.50789327210602</v>
+        <v>9.681005795404484</v>
       </c>
       <c r="K13">
-        <v>11.15405250752637</v>
+        <v>15.09917625532161</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.43456085846041</v>
+        <v>11.21743198540889</v>
       </c>
       <c r="O13">
-        <v>23.69324264595814</v>
+        <v>15.82042528636467</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.34533330442906</v>
+        <v>16.77185464699359</v>
       </c>
       <c r="C14">
-        <v>6.012644236064682</v>
+        <v>10.06131831349759</v>
       </c>
       <c r="D14">
-        <v>11.34060596401259</v>
+        <v>12.19746107356235</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.69353683202475</v>
+        <v>25.72239091711979</v>
       </c>
       <c r="G14">
-        <v>3.643155756605084</v>
+        <v>2.073171446276791</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.53074330554075</v>
+        <v>13.13881994261227</v>
       </c>
       <c r="J14">
-        <v>11.50049331462922</v>
+        <v>9.621394944815155</v>
       </c>
       <c r="K14">
-        <v>11.11438715620111</v>
+        <v>14.97367420061672</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.44482055814218</v>
+        <v>11.25586283242069</v>
       </c>
       <c r="O14">
-        <v>23.70199985954449</v>
+        <v>15.79419613764815</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.31094938828516</v>
+        <v>16.68127724526705</v>
       </c>
       <c r="C15">
-        <v>5.989133827415016</v>
+        <v>10.00747520116423</v>
       </c>
       <c r="D15">
-        <v>11.3258760796078</v>
+        <v>12.1367668547725</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>32.69070863126319</v>
+        <v>25.6484354142197</v>
       </c>
       <c r="G15">
-        <v>3.643342921109891</v>
+        <v>2.07372208764775</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.53886760495548</v>
+        <v>13.14636970810109</v>
       </c>
       <c r="J15">
-        <v>11.49600185885445</v>
+        <v>9.584841713835262</v>
       </c>
       <c r="K15">
-        <v>11.09004638310663</v>
+        <v>14.89632532801676</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.45113644739659</v>
+        <v>11.27943768617852</v>
       </c>
       <c r="O15">
-        <v>23.70745961512532</v>
+        <v>15.77846468303137</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.11221392619229</v>
+        <v>16.153261328658</v>
       </c>
       <c r="C16">
-        <v>5.852702162821713</v>
+        <v>9.693858195554911</v>
       </c>
       <c r="D16">
-        <v>11.24173050306997</v>
+        <v>11.78480321936132</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.67684633817422</v>
+        <v>25.22868306559645</v>
       </c>
       <c r="G16">
-        <v>3.644432128723653</v>
+        <v>2.076897954964089</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.58660547075502</v>
+        <v>13.19396828029638</v>
       </c>
       <c r="J16">
-        <v>11.47089938175064</v>
+        <v>9.37479354778746</v>
       </c>
       <c r="K16">
-        <v>10.94991416895428</v>
+        <v>14.4457663440009</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.48781428229047</v>
+        <v>11.41508946049284</v>
       </c>
       <c r="O16">
-        <v>23.74021289879857</v>
+        <v>15.69336538022743</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.98884354225925</v>
+        <v>15.82131499307619</v>
       </c>
       <c r="C17">
-        <v>5.767517718785557</v>
+        <v>9.496922801885271</v>
       </c>
       <c r="D17">
-        <v>11.19037001086743</v>
+        <v>11.56521283923878</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.67043728180671</v>
+        <v>24.97485275658602</v>
       </c>
       <c r="G17">
-        <v>3.645115206500543</v>
+        <v>2.078864966286723</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.61694395944298</v>
+        <v>13.22691569774303</v>
       </c>
       <c r="J17">
-        <v>11.45607207485737</v>
+        <v>9.245461969825664</v>
       </c>
       <c r="K17">
-        <v>10.86341469187485</v>
+        <v>14.16282566276292</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.51074772992912</v>
+        <v>11.49882255684162</v>
       </c>
       <c r="O17">
-        <v>23.76161229794557</v>
+        <v>15.64558100792323</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.91737498322429</v>
+        <v>15.62742472799923</v>
       </c>
       <c r="C18">
-        <v>5.717988260381146</v>
+        <v>9.381973048418606</v>
       </c>
       <c r="D18">
-        <v>11.16093361516276</v>
+        <v>11.43757475409544</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.66752175641955</v>
+        <v>24.83022857840276</v>
       </c>
       <c r="G18">
-        <v>3.645513577732604</v>
+        <v>2.080003430858009</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.63478046641204</v>
+        <v>13.2471965636592</v>
       </c>
       <c r="J18">
-        <v>11.44775584164962</v>
+        <v>9.170916959697815</v>
       </c>
       <c r="K18">
-        <v>10.81348392177067</v>
+        <v>13.99767593951191</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.52409783838412</v>
+        <v>11.54718105724055</v>
       </c>
       <c r="O18">
-        <v>23.77440012763396</v>
+        <v>15.61968688683602</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.89309192629546</v>
+        <v>15.56126652093022</v>
       </c>
       <c r="C19">
-        <v>5.701128110098941</v>
+        <v>9.342764091784336</v>
       </c>
       <c r="D19">
-        <v>11.15098583097672</v>
+        <v>11.39413081898845</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.66666706678105</v>
+        <v>24.78149914219462</v>
       </c>
       <c r="G19">
-        <v>3.64564940233468</v>
+        <v>2.080390133086551</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.64088597282665</v>
+        <v>13.25428746111334</v>
       </c>
       <c r="J19">
-        <v>11.44497668669209</v>
+        <v>9.145652094214116</v>
       </c>
       <c r="K19">
-        <v>10.79654922414116</v>
+        <v>13.94134457980698</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.52864536539993</v>
+        <v>11.56358908030536</v>
       </c>
       <c r="O19">
-        <v>23.77881215592108</v>
+        <v>15.61118936802399</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.00202979837806</v>
+        <v>15.85695764640728</v>
       </c>
       <c r="C20">
-        <v>5.776641285910136</v>
+        <v>9.51806035769296</v>
       </c>
       <c r="D20">
-        <v>11.19582678424006</v>
+        <v>11.5887271754732</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.67103978040826</v>
+        <v>25.0017319030407</v>
       </c>
       <c r="G20">
-        <v>3.645041924534057</v>
+        <v>2.078654845318197</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.61367435581533</v>
+        <v>13.22326966018832</v>
       </c>
       <c r="J20">
-        <v>11.45762855992034</v>
+        <v>9.259246183875378</v>
       </c>
       <c r="K20">
-        <v>10.87264158423158</v>
+        <v>14.19319442545389</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.50828993628544</v>
+        <v>11.48988877229439</v>
       </c>
       <c r="O20">
-        <v>23.7592846589611</v>
+        <v>15.6505023689394</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.36179052322397</v>
+        <v>16.81513111348703</v>
       </c>
       <c r="C21">
-        <v>6.023887567032677</v>
+        <v>10.08704830545938</v>
       </c>
       <c r="D21">
-        <v>11.34767371260802</v>
+        <v>12.22649181910779</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.69493447261705</v>
+        <v>25.75792560856901</v>
       </c>
       <c r="G21">
-        <v>3.643066300088703</v>
+        <v>2.072907751131035</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.5268683816235</v>
+        <v>13.13527800308134</v>
       </c>
       <c r="J21">
-        <v>11.50265827921002</v>
+        <v>9.638912483326626</v>
       </c>
       <c r="K21">
-        <v>11.12604721708121</v>
+        <v>15.0106361867938</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.44180046737788</v>
+        <v>11.24456754596927</v>
       </c>
       <c r="O21">
-        <v>23.69940770474247</v>
+        <v>15.80183034707199</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.59187418532195</v>
+        <v>17.41526881310439</v>
       </c>
       <c r="C22">
-        <v>6.180458096496293</v>
+        <v>10.4441673013504</v>
       </c>
       <c r="D22">
-        <v>11.4476520402183</v>
+        <v>12.63115362812865</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.71739365312097</v>
+        <v>26.26390579479372</v>
       </c>
       <c r="G22">
-        <v>3.641823663519121</v>
+        <v>2.069210231213168</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.47358500891368</v>
+        <v>13.0906266564298</v>
       </c>
       <c r="J22">
-        <v>11.53393801689753</v>
+        <v>9.885306566670423</v>
       </c>
       <c r="K22">
-        <v>11.2897121956136</v>
+        <v>15.523590301378</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.39975776526132</v>
+        <v>11.08581788933017</v>
       </c>
       <c r="O22">
-        <v>23.66455677254643</v>
+        <v>15.9156180191364</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.46955856410994</v>
+        <v>17.09733542696668</v>
       </c>
       <c r="C23">
-        <v>6.097364567313408</v>
+        <v>10.25490569075122</v>
       </c>
       <c r="D23">
-        <v>11.39423368629805</v>
+        <v>12.41629998184973</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.70478189146577</v>
+        <v>25.99279917494075</v>
       </c>
       <c r="G23">
-        <v>3.642482453215484</v>
+        <v>2.071178542822838</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.50170740739365</v>
+        <v>13.11323132093008</v>
       </c>
       <c r="J23">
-        <v>11.51707605696725</v>
+        <v>9.753975256321597</v>
       </c>
       <c r="K23">
-        <v>11.20255642673157</v>
+        <v>15.2517561135686</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.4220679032281</v>
+        <v>11.17040964402642</v>
       </c>
       <c r="O23">
-        <v>23.6827649752098</v>
+        <v>15.85349100526959</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.996069972132</v>
+        <v>15.84085310590293</v>
       </c>
       <c r="C24">
-        <v>5.772518249247784</v>
+        <v>9.508509456133673</v>
       </c>
       <c r="D24">
-        <v>11.19335949000513</v>
+        <v>11.57810067857341</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.67076499478655</v>
+        <v>24.98957576703933</v>
       </c>
       <c r="G24">
-        <v>3.645075037675493</v>
+        <v>2.078749817274674</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.61515131481111</v>
+        <v>13.22491387422974</v>
       </c>
       <c r="J24">
-        <v>11.45692422414823</v>
+        <v>9.253014930204316</v>
       </c>
       <c r="K24">
-        <v>10.86847072838273</v>
+        <v>14.17947244466104</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.50940058959709</v>
+        <v>11.49392705152662</v>
       </c>
       <c r="O24">
-        <v>23.76033547383113</v>
+        <v>15.64827251544292</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.46623926721995</v>
+        <v>14.37207293705588</v>
       </c>
       <c r="C25">
-        <v>5.401934839147743</v>
+        <v>8.639170460133069</v>
       </c>
       <c r="D25">
-        <v>10.98080565515455</v>
+        <v>10.62321548498126</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>32.66354337060575</v>
+        <v>23.96019735273172</v>
       </c>
       <c r="G25">
-        <v>3.648081358543657</v>
+        <v>2.08719017363237</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.75229627664601</v>
+        <v>13.39571430961437</v>
       </c>
       <c r="J25">
-        <v>11.40016550914095</v>
+        <v>8.706944180703289</v>
       </c>
       <c r="K25">
-        <v>10.50151813955274</v>
+        <v>12.93066464348734</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.60970179855409</v>
+        <v>11.85053400736669</v>
       </c>
       <c r="O25">
-        <v>23.8623298062519</v>
+        <v>15.48723506449099</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.19135023179683</v>
+        <v>12.27908995054744</v>
       </c>
       <c r="C2">
-        <v>7.942869852284337</v>
+        <v>8.176169259581258</v>
       </c>
       <c r="D2">
-        <v>9.878771692124495</v>
+        <v>7.029544736903824</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.24999167162928</v>
+        <v>27.21939724128187</v>
       </c>
       <c r="G2">
-        <v>2.093663991955145</v>
+        <v>32.12066834704972</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.654556712581222</v>
       </c>
       <c r="I2">
-        <v>13.55973742526588</v>
+        <v>3.138089060389247</v>
       </c>
       <c r="J2">
-        <v>8.302295549926757</v>
+        <v>11.27322366173835</v>
       </c>
       <c r="K2">
-        <v>11.93118377878553</v>
+        <v>17.16325722648815</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.226764387310164</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.30286687640327</v>
       </c>
       <c r="N2">
-        <v>12.12060621386072</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.41632216833478</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.91261095083956</v>
+      </c>
+      <c r="P2">
+        <v>13.69782114926529</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.32848289493497</v>
+        <v>11.46640314675884</v>
       </c>
       <c r="C3">
-        <v>7.435538042637183</v>
+        <v>7.630013678563135</v>
       </c>
       <c r="D3">
-        <v>9.35024533969476</v>
+        <v>6.685245239552062</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.79955415926007</v>
+        <v>26.63752757769646</v>
       </c>
       <c r="G3">
-        <v>2.098224167463914</v>
+        <v>31.41984185011997</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.878390073891861</v>
       </c>
       <c r="I3">
-        <v>13.6924383440062</v>
+        <v>3.301770657965527</v>
       </c>
       <c r="J3">
-        <v>8.027916223501675</v>
+        <v>11.22478271960364</v>
       </c>
       <c r="K3">
-        <v>11.20379873245086</v>
+        <v>17.10067694523779</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.031544208827453</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.59568384949869</v>
       </c>
       <c r="N3">
-        <v>12.30875205676521</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>15.39575237883749</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.30866837986738</v>
+      </c>
+      <c r="P3">
+        <v>13.83699776420119</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.76754329120641</v>
+        <v>10.93486025728963</v>
       </c>
       <c r="C4">
-        <v>7.106467528278227</v>
+        <v>7.279155072553458</v>
       </c>
       <c r="D4">
-        <v>9.014719709186348</v>
+        <v>6.465929759219449</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.53851863433072</v>
+        <v>26.2799607925882</v>
       </c>
       <c r="G4">
-        <v>2.101112804042689</v>
+        <v>30.99094900497015</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.02094860215476</v>
       </c>
       <c r="I4">
-        <v>13.78382586627702</v>
+        <v>3.406655983565379</v>
       </c>
       <c r="J4">
-        <v>7.859942758704635</v>
+        <v>11.19754709037032</v>
       </c>
       <c r="K4">
-        <v>10.73255167268246</v>
+        <v>17.06506702289657</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.907932623833311</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.13632722957673</v>
       </c>
       <c r="N4">
-        <v>12.42693207168646</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>15.39590945925174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.92354539012059</v>
+      </c>
+      <c r="P4">
+        <v>13.9235900301144</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.53109964561067</v>
+        <v>10.70423861770232</v>
       </c>
       <c r="C5">
-        <v>6.967944911976126</v>
+        <v>7.140573687292156</v>
       </c>
       <c r="D5">
-        <v>8.875378137988477</v>
+        <v>6.377138063582416</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.43608802401823</v>
+        <v>26.1256006910336</v>
       </c>
       <c r="G5">
-        <v>2.102312720535433</v>
+        <v>30.80107597800651</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.080593010647387</v>
       </c>
       <c r="I5">
-        <v>13.82345777033495</v>
+        <v>3.453249589870649</v>
       </c>
       <c r="J5">
-        <v>7.791710446740498</v>
+        <v>11.18429717091233</v>
       </c>
       <c r="K5">
-        <v>10.53434160376291</v>
+        <v>17.04470947909329</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.856429266265225</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.941888983356522</v>
       </c>
       <c r="N5">
-        <v>12.47577831150064</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>15.39907224289351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.76332872061172</v>
+      </c>
+      <c r="P5">
+        <v>13.95788231720667</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.49136316365954</v>
+        <v>10.65836619894125</v>
       </c>
       <c r="C6">
-        <v>6.944676079257181</v>
+        <v>7.127489560750289</v>
       </c>
       <c r="D6">
-        <v>8.852087956255398</v>
+        <v>6.365333252920448</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.41931849798866</v>
+        <v>26.08931404852456</v>
       </c>
       <c r="G6">
-        <v>2.102513354806296</v>
+        <v>30.75048153385125</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.09087470009343</v>
       </c>
       <c r="I6">
-        <v>13.83018017092406</v>
+        <v>3.46456543248996</v>
       </c>
       <c r="J6">
-        <v>7.780396540364198</v>
+        <v>11.17874443907994</v>
       </c>
       <c r="K6">
-        <v>10.50105697879698</v>
+        <v>17.03337544645154</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.847558665284057</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.908081115826324</v>
       </c>
       <c r="N6">
-        <v>12.4839312120082</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>15.39978113655076</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.73672291488346</v>
+      </c>
+      <c r="P6">
+        <v>13.96201946856496</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.76438637159116</v>
+        <v>10.91291042891233</v>
       </c>
       <c r="C7">
-        <v>7.104617279782068</v>
+        <v>7.304362689696115</v>
       </c>
       <c r="D7">
-        <v>9.01285084848787</v>
+        <v>6.472927281489447</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.53712121294518</v>
+        <v>26.24898444317648</v>
       </c>
       <c r="G7">
-        <v>2.101128893709089</v>
+        <v>30.93660945730667</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.022550706137936</v>
       </c>
       <c r="I7">
-        <v>13.78435080511555</v>
+        <v>3.416583930585262</v>
       </c>
       <c r="J7">
-        <v>7.859021542749997</v>
+        <v>11.1881372154746</v>
       </c>
       <c r="K7">
-        <v>10.72990350098052</v>
+        <v>17.04300342024926</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.906533697236089</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.13068190489583</v>
       </c>
       <c r="N7">
-        <v>12.42758802369433</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>15.39593972216214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.92193549499691</v>
+      </c>
+      <c r="P7">
+        <v>13.91979678118802</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.90027818112173</v>
+        <v>11.98256586860468</v>
       </c>
       <c r="C8">
-        <v>7.771582244200452</v>
+        <v>8.02398261496916</v>
       </c>
       <c r="D8">
-        <v>9.698905157136254</v>
+        <v>6.922707359402494</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.09148258483133</v>
+        <v>26.98177887521693</v>
       </c>
       <c r="G8">
-        <v>2.095218230507598</v>
+        <v>31.81224995686202</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.731692891028785</v>
       </c>
       <c r="I8">
-        <v>13.60337375408268</v>
+        <v>3.205542298270633</v>
       </c>
       <c r="J8">
-        <v>8.207640655699826</v>
+        <v>11.24392630803577</v>
       </c>
       <c r="K8">
-        <v>11.68550165174138</v>
+        <v>17.11253267918516</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.159366951036191</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.06049779595373</v>
       </c>
       <c r="N8">
-        <v>12.1849387555693</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>15.40650619095806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.70808673114571</v>
+      </c>
+      <c r="P8">
+        <v>13.74016207150434</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.88214645004431</v>
+        <v>13.85364364920565</v>
       </c>
       <c r="C9">
-        <v>8.940681722885808</v>
+        <v>9.269974078112607</v>
       </c>
       <c r="D9">
-        <v>10.95148436563683</v>
+        <v>7.725758880835576</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.29968983326702</v>
+        <v>28.46011623225606</v>
       </c>
       <c r="G9">
-        <v>2.084308298882896</v>
+        <v>33.62278579607004</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.199809154234051</v>
       </c>
       <c r="I9">
-        <v>13.33191197545135</v>
+        <v>2.810684623819861</v>
       </c>
       <c r="J9">
-        <v>8.891463960382326</v>
+        <v>11.38993192515</v>
       </c>
       <c r="K9">
-        <v>13.36371786395608</v>
+        <v>17.31034924671242</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.625539971567397</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.68934107176545</v>
       </c>
       <c r="N9">
-        <v>11.72930475145966</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.53378744541181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.1297730727163</v>
+      </c>
+      <c r="P9">
+        <v>13.40359837644969</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.19073816221716</v>
+        <v>15.0538209348593</v>
       </c>
       <c r="C10">
-        <v>9.716103178877407</v>
+        <v>10.08533235769633</v>
       </c>
       <c r="D10">
-        <v>11.80967797451398</v>
+        <v>8.169286963266627</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>25.25783120811865</v>
+        <v>29.32710576083371</v>
       </c>
       <c r="G10">
-        <v>2.076674451005587</v>
+        <v>34.70978988352996</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.869068763785645</v>
       </c>
       <c r="I10">
-        <v>13.19039237895692</v>
+        <v>2.552284121357279</v>
       </c>
       <c r="J10">
-        <v>9.389528635032665</v>
+        <v>11.46583054533839</v>
       </c>
       <c r="K10">
-        <v>14.47772582586216</v>
+        <v>17.39146617045474</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.832484408765214</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.74297436632209</v>
       </c>
       <c r="N10">
-        <v>11.40556110130598</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>15.69903590864309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.9474386797149</v>
+      </c>
+      <c r="P10">
+        <v>13.14453549364147</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.75456802017289</v>
+        <v>15.43354043279425</v>
       </c>
       <c r="C11">
-        <v>10.05104139267217</v>
+        <v>10.15550650653303</v>
       </c>
       <c r="D11">
-        <v>12.18587061520057</v>
+        <v>7.460390051453192</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.70823281031386</v>
+        <v>28.00903632903346</v>
       </c>
       <c r="G11">
-        <v>2.07327666851756</v>
+        <v>33.28399379508635</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.857114434983166</v>
       </c>
       <c r="I11">
-        <v>13.14024657693515</v>
+        <v>2.503477091391932</v>
       </c>
       <c r="J11">
-        <v>9.614407185135503</v>
+        <v>11.14271543333154</v>
       </c>
       <c r="K11">
-        <v>14.95891093392184</v>
+        <v>16.80651904189197</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.015868995354281</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.01529602490873</v>
       </c>
       <c r="N11">
-        <v>11.26036898244321</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>15.79116801653703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.0305213259392</v>
+      </c>
+      <c r="P11">
+        <v>12.91263834947249</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.96359926079776</v>
+        <v>15.53314296270615</v>
       </c>
       <c r="C12">
-        <v>10.1753425477984</v>
+        <v>10.0162866706915</v>
       </c>
       <c r="D12">
-        <v>12.326242934107</v>
+        <v>6.762209257336038</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.88081303708314</v>
+        <v>26.7393996989721</v>
       </c>
       <c r="G12">
-        <v>2.072000103544847</v>
+        <v>31.90021744438082</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.228707903885178</v>
       </c>
       <c r="I12">
-        <v>13.12345059210115</v>
+        <v>2.514349296889236</v>
       </c>
       <c r="J12">
-        <v>9.699268283157734</v>
+        <v>10.86384492771747</v>
       </c>
       <c r="K12">
-        <v>15.13747000547078</v>
+        <v>16.32615534772292</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.427834502458962</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.03452338236817</v>
       </c>
       <c r="N12">
-        <v>11.20566149632294</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>15.82860232409682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>13.07782148044659</v>
+      </c>
+      <c r="P12">
+        <v>12.79385516413707</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.91877911035047</v>
+        <v>15.40508599670069</v>
       </c>
       <c r="C13">
-        <v>10.14868424044133</v>
+        <v>9.733737930533415</v>
       </c>
       <c r="D13">
-        <v>12.29610441462144</v>
+        <v>6.026301643225187</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.84355585094569</v>
+        <v>25.37456047290042</v>
       </c>
       <c r="G13">
-        <v>2.072274596475097</v>
+        <v>30.37036722336845</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.650066903442051</v>
       </c>
       <c r="I13">
-        <v>13.12696795826506</v>
+        <v>2.524487940596085</v>
       </c>
       <c r="J13">
-        <v>9.681005795404484</v>
+        <v>10.58740642665808</v>
       </c>
       <c r="K13">
-        <v>15.09917625532161</v>
+        <v>15.86369284853672</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.012646019186024</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.85753329623995</v>
       </c>
       <c r="N13">
-        <v>11.21743198540889</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>15.82042528636467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>12.01857207709122</v>
+      </c>
+      <c r="P13">
+        <v>12.74762705786426</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.77185464699359</v>
+        <v>15.20657753451674</v>
       </c>
       <c r="C14">
-        <v>10.06131831349759</v>
+        <v>9.473293835066313</v>
       </c>
       <c r="D14">
-        <v>12.19746107356235</v>
+        <v>5.49397200052818</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.72239091711979</v>
+        <v>24.36689819983778</v>
       </c>
       <c r="G14">
-        <v>2.073171446276791</v>
+        <v>29.21417561602557</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.659062859089425</v>
       </c>
       <c r="I14">
-        <v>13.13881994261227</v>
+        <v>2.573049230316074</v>
       </c>
       <c r="J14">
-        <v>9.621394944815155</v>
+        <v>10.39352027367053</v>
       </c>
       <c r="K14">
-        <v>14.97367420061672</v>
+        <v>15.5449595288649</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.845480325968123</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.6420002294223</v>
       </c>
       <c r="N14">
-        <v>11.25586283242069</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>15.79419613764815</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.22020592675126</v>
+      </c>
+      <c r="P14">
+        <v>12.74911442393327</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.68127724526705</v>
+        <v>15.10287496732613</v>
       </c>
       <c r="C15">
-        <v>10.00747520116423</v>
+        <v>9.38585880899444</v>
       </c>
       <c r="D15">
-        <v>12.1367668547725</v>
+        <v>5.357106872513307</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.6484354142197</v>
+        <v>24.09389445297413</v>
       </c>
       <c r="G15">
-        <v>2.07372208764775</v>
+        <v>28.88654296380061</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.895008549764816</v>
       </c>
       <c r="I15">
-        <v>13.14636970810109</v>
+        <v>2.599969615236349</v>
       </c>
       <c r="J15">
-        <v>9.584841713835262</v>
+        <v>10.34453661647933</v>
       </c>
       <c r="K15">
-        <v>14.89632532801676</v>
+        <v>15.46490723137432</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.82047406635713</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.54562241097228</v>
       </c>
       <c r="N15">
-        <v>11.27943768617852</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>15.77846468303137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.00221397634572</v>
+      </c>
+      <c r="P15">
+        <v>12.76206481433292</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.153261328658</v>
+        <v>14.62106377837431</v>
       </c>
       <c r="C16">
-        <v>9.693858195554911</v>
+        <v>9.097805735428684</v>
       </c>
       <c r="D16">
-        <v>11.78480321936132</v>
+        <v>5.280086073531616</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>25.22868306559645</v>
+        <v>23.94962409227579</v>
       </c>
       <c r="G16">
-        <v>2.076897954964089</v>
+        <v>28.65136868494885</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.707767798565325</v>
       </c>
       <c r="I16">
-        <v>13.19396828029638</v>
+        <v>2.708006811508753</v>
       </c>
       <c r="J16">
-        <v>9.37479354778746</v>
+        <v>10.36075270895685</v>
       </c>
       <c r="K16">
-        <v>14.4457663440009</v>
+        <v>15.50979866818494</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.798879974235573</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.13625742837748</v>
       </c>
       <c r="N16">
-        <v>11.41508946049284</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>15.69336538022743</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.81444708378117</v>
+      </c>
+      <c r="P16">
+        <v>12.8753805920187</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.82131499307619</v>
+        <v>14.35314069973178</v>
       </c>
       <c r="C17">
-        <v>9.496922801885271</v>
+        <v>9.019611302003767</v>
       </c>
       <c r="D17">
-        <v>11.56521283923878</v>
+        <v>5.511590442979282</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.97485275658602</v>
+        <v>24.38169517553015</v>
       </c>
       <c r="G17">
-        <v>2.078864966286723</v>
+        <v>29.09789939074954</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.000293938928785</v>
       </c>
       <c r="I17">
-        <v>13.22691569774303</v>
+        <v>2.766192276486706</v>
       </c>
       <c r="J17">
-        <v>9.245461969825664</v>
+        <v>10.47641658842562</v>
       </c>
       <c r="K17">
-        <v>14.16282566276292</v>
+        <v>15.71259615043498</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.849535836466129</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.93560267901962</v>
       </c>
       <c r="N17">
-        <v>11.49882255684162</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>15.64558100792323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.1083645601233</v>
+      </c>
+      <c r="P17">
+        <v>12.96127197678863</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.62742472799923</v>
+        <v>14.25971622907047</v>
       </c>
       <c r="C18">
-        <v>9.381973048418606</v>
+        <v>9.100312801974319</v>
       </c>
       <c r="D18">
-        <v>11.43757475409544</v>
+        <v>6.043248783703054</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.83022857840276</v>
+        <v>25.38094736133182</v>
       </c>
       <c r="G18">
-        <v>2.080003430858009</v>
+        <v>30.21490190838281</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.795736225557661</v>
       </c>
       <c r="I18">
-        <v>13.2471965636592</v>
+        <v>2.775302166193329</v>
       </c>
       <c r="J18">
-        <v>9.170916959697815</v>
+        <v>10.69711572670848</v>
       </c>
       <c r="K18">
-        <v>13.99767593951191</v>
+        <v>16.09203768381511</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.088396404652788</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.90058963993394</v>
       </c>
       <c r="N18">
-        <v>11.54718105724055</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>15.61968688683602</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.85580832805897</v>
+      </c>
+      <c r="P18">
+        <v>13.04335298158851</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.56126652093022</v>
+        <v>14.28792027031681</v>
       </c>
       <c r="C19">
-        <v>9.342764091784336</v>
+        <v>9.342017398825741</v>
       </c>
       <c r="D19">
-        <v>11.39413081898845</v>
+        <v>6.796288213172934</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.78149914219462</v>
+        <v>26.71917023553436</v>
       </c>
       <c r="G19">
-        <v>2.080390133086551</v>
+        <v>31.69804206363066</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.391179887416706</v>
       </c>
       <c r="I19">
-        <v>13.25428746111334</v>
+        <v>2.762716201345934</v>
       </c>
       <c r="J19">
-        <v>9.145652094214116</v>
+        <v>10.97211659872591</v>
       </c>
       <c r="K19">
-        <v>13.94134457980698</v>
+        <v>16.55595726524751</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.611504811763884</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.99835603437985</v>
       </c>
       <c r="N19">
-        <v>11.56358908030536</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>15.61118936802399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.90990715328918</v>
+      </c>
+      <c r="P19">
+        <v>13.12462134555301</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.85695764640728</v>
+        <v>14.70286635529097</v>
       </c>
       <c r="C20">
-        <v>9.51806035769296</v>
+        <v>9.938270086096578</v>
       </c>
       <c r="D20">
-        <v>11.5887271754732</v>
+        <v>8.070854624766076</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.0017319030407</v>
+        <v>29.01083966395894</v>
       </c>
       <c r="G20">
-        <v>2.078654845318197</v>
+        <v>34.27054067714123</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.956161846649604</v>
       </c>
       <c r="I20">
-        <v>13.22326966018832</v>
+        <v>2.652063191367288</v>
       </c>
       <c r="J20">
-        <v>9.259246183875378</v>
+        <v>11.41578623258905</v>
       </c>
       <c r="K20">
-        <v>14.19319442545389</v>
+        <v>17.30090972079619</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.772015093870854</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.46578234583825</v>
       </c>
       <c r="N20">
-        <v>11.48988877229439</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>15.6505023689394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.73176828359871</v>
+      </c>
+      <c r="P20">
+        <v>13.20003181507288</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.81513111348703</v>
+        <v>15.60860398259669</v>
       </c>
       <c r="C21">
-        <v>10.08704830545938</v>
+        <v>10.5815586786101</v>
       </c>
       <c r="D21">
-        <v>12.22649181910779</v>
+        <v>8.558291433029042</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.75792560856901</v>
+        <v>29.98999526066379</v>
       </c>
       <c r="G21">
-        <v>2.072907751131035</v>
+        <v>35.46751285987276</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.654088676135853</v>
       </c>
       <c r="I21">
-        <v>13.13527800308134</v>
+        <v>2.569297951562604</v>
       </c>
       <c r="J21">
-        <v>9.638912483326626</v>
+        <v>11.54648483404791</v>
       </c>
       <c r="K21">
-        <v>15.0106361867938</v>
+        <v>17.48916988119518</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.103840297381714</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.27084009888828</v>
       </c>
       <c r="N21">
-        <v>11.24456754596927</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.80183034707199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.56379081827507</v>
+      </c>
+      <c r="P21">
+        <v>13.02720480692186</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.41526881310439</v>
+        <v>16.18349705428439</v>
       </c>
       <c r="C22">
-        <v>10.4441673013504</v>
+        <v>10.94587798308677</v>
       </c>
       <c r="D22">
-        <v>12.63115362812865</v>
+        <v>8.805352277294366</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.26390579479372</v>
+        <v>30.55822242909662</v>
       </c>
       <c r="G22">
-        <v>2.069210231213168</v>
+        <v>36.19347445403734</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.642075651062673</v>
       </c>
       <c r="I22">
-        <v>13.0906266564298</v>
+        <v>2.690996610799661</v>
       </c>
       <c r="J22">
-        <v>9.885306566670423</v>
+        <v>11.62520540277695</v>
       </c>
       <c r="K22">
-        <v>15.523590301378</v>
+        <v>17.60677596977969</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.258189180177302</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.76739773711743</v>
       </c>
       <c r="N22">
-        <v>11.08581788933017</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>15.9156180191364</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.01504433591696</v>
+      </c>
+      <c r="P22">
+        <v>12.91228658263552</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.09733542696668</v>
+        <v>15.89525381379793</v>
       </c>
       <c r="C23">
-        <v>10.25490569075122</v>
+        <v>10.72990680830725</v>
       </c>
       <c r="D23">
-        <v>12.41629998184973</v>
+        <v>8.666829015068632</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.99279917494075</v>
+        <v>30.28484660238925</v>
       </c>
       <c r="G23">
-        <v>2.071178542822838</v>
+        <v>35.85906778829283</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.570409669663204</v>
       </c>
       <c r="I23">
-        <v>13.11323132093008</v>
+        <v>2.621108543682807</v>
       </c>
       <c r="J23">
-        <v>9.753975256321597</v>
+        <v>11.59320375246773</v>
       </c>
       <c r="K23">
-        <v>15.2517561135686</v>
+        <v>17.56812089422269</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.176812733924621</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.50703706766637</v>
       </c>
       <c r="N23">
-        <v>11.17040964402642</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.85349100526959</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.77517260957374</v>
+      </c>
+      <c r="P23">
+        <v>12.977922901901</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.84085310590293</v>
+        <v>14.72449399559965</v>
       </c>
       <c r="C24">
-        <v>9.508509456133673</v>
+        <v>9.920263422816264</v>
       </c>
       <c r="D24">
-        <v>11.57810067857341</v>
+        <v>8.136721453240382</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.98957576703933</v>
+        <v>29.1959642604131</v>
       </c>
       <c r="G24">
-        <v>2.078749817274674</v>
+        <v>34.50542633300244</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.932881199122984</v>
       </c>
       <c r="I24">
-        <v>13.22491387422974</v>
+        <v>2.631006691104747</v>
       </c>
       <c r="J24">
-        <v>9.253014930204316</v>
+        <v>11.46139360691526</v>
       </c>
       <c r="K24">
-        <v>14.17947244466104</v>
+        <v>17.39024528556194</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.859797839543307</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.47341242078561</v>
       </c>
       <c r="N24">
-        <v>11.49392705152662</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>15.64827251544292</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.83634906221992</v>
+      </c>
+      <c r="P24">
+        <v>13.22090650708159</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.37207293705588</v>
+        <v>13.34628309238635</v>
       </c>
       <c r="C25">
-        <v>8.639170460133069</v>
+        <v>8.986248535255555</v>
       </c>
       <c r="D25">
-        <v>10.62321548498126</v>
+        <v>7.52869571885904</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.96019735273172</v>
+        <v>28.01331013047746</v>
       </c>
       <c r="G25">
-        <v>2.08719017363237</v>
+        <v>33.04640639100791</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.340851969811592</v>
       </c>
       <c r="I25">
-        <v>13.39571430961437</v>
+        <v>2.931319618796197</v>
       </c>
       <c r="J25">
-        <v>8.706944180703289</v>
+        <v>11.33199094651269</v>
       </c>
       <c r="K25">
-        <v>12.93066464348734</v>
+        <v>17.21587020648816</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.50175743120373</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.26533181554371</v>
       </c>
       <c r="N25">
-        <v>11.85053400736669</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.48723506449099</v>
+        <v>13.75943118401929</v>
+      </c>
+      <c r="P25">
+        <v>13.48676926987505</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_11/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.27908995054744</v>
+        <v>11.95008552517569</v>
       </c>
       <c r="C2">
-        <v>8.176169259581258</v>
+        <v>8.66150640154869</v>
       </c>
       <c r="D2">
-        <v>7.029544736903824</v>
+        <v>7.291792408317524</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.21939724128187</v>
+        <v>26.32071667604194</v>
       </c>
       <c r="G2">
-        <v>32.12066834704972</v>
+        <v>30.17963041533806</v>
       </c>
       <c r="H2">
-        <v>2.654556712581222</v>
+        <v>2.594167962268837</v>
       </c>
       <c r="I2">
-        <v>3.138089060389247</v>
+        <v>2.99253195708741</v>
       </c>
       <c r="J2">
-        <v>11.27322366173835</v>
+        <v>11.1368237392834</v>
       </c>
       <c r="K2">
-        <v>17.16325722648815</v>
+        <v>16.27382869162341</v>
       </c>
       <c r="L2">
-        <v>7.226764387310164</v>
+        <v>13.39482410760162</v>
       </c>
       <c r="M2">
-        <v>11.30286687640327</v>
+        <v>10.71790619575531</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.264045516925846</v>
       </c>
       <c r="O2">
-        <v>12.91261095083956</v>
+        <v>11.27489307077027</v>
       </c>
       <c r="P2">
-        <v>13.69782114926529</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.94728995294795</v>
+      </c>
+      <c r="R2">
+        <v>13.45159761192508</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.46640314675884</v>
+        <v>11.20345897322749</v>
       </c>
       <c r="C3">
-        <v>7.630013678563135</v>
+        <v>8.030885109058469</v>
       </c>
       <c r="D3">
-        <v>6.685245239552062</v>
+        <v>6.931378180738931</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.63752757769646</v>
+        <v>25.81911486206887</v>
       </c>
       <c r="G3">
-        <v>31.41984185011997</v>
+        <v>29.6658241873949</v>
       </c>
       <c r="H3">
-        <v>2.878390073891861</v>
+        <v>2.807135599700587</v>
       </c>
       <c r="I3">
-        <v>3.301770657965527</v>
+        <v>3.135486258107857</v>
       </c>
       <c r="J3">
-        <v>11.22478271960364</v>
+        <v>11.07293181281164</v>
       </c>
       <c r="K3">
-        <v>17.10067694523779</v>
+        <v>16.26567123520057</v>
       </c>
       <c r="L3">
-        <v>7.031544208827453</v>
+        <v>13.48856492430999</v>
       </c>
       <c r="M3">
-        <v>10.59568384949869</v>
+        <v>10.63029841041769</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.077925823992846</v>
       </c>
       <c r="O3">
-        <v>12.30866837986738</v>
+        <v>10.58322687563652</v>
       </c>
       <c r="P3">
-        <v>13.83699776420119</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.34280851677219</v>
+      </c>
+      <c r="R3">
+        <v>13.59109091815212</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.93486025728963</v>
+        <v>10.71515026585056</v>
       </c>
       <c r="C4">
-        <v>7.279155072553458</v>
+        <v>7.624797200560075</v>
       </c>
       <c r="D4">
-        <v>6.465929759219449</v>
+        <v>6.702175938469304</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.2799607925882</v>
+        <v>25.51047453358841</v>
       </c>
       <c r="G4">
-        <v>30.99094900497015</v>
+        <v>29.35534071146428</v>
       </c>
       <c r="H4">
-        <v>3.02094860215476</v>
+        <v>2.942851661422559</v>
       </c>
       <c r="I4">
-        <v>3.406655983565379</v>
+        <v>3.22745013756336</v>
       </c>
       <c r="J4">
-        <v>11.19754709037032</v>
+        <v>11.03394821826006</v>
       </c>
       <c r="K4">
-        <v>17.06506702289657</v>
+        <v>16.26228178574803</v>
       </c>
       <c r="L4">
-        <v>6.907932623833311</v>
+        <v>13.54526080643931</v>
       </c>
       <c r="M4">
-        <v>10.13632722957673</v>
+        <v>10.59391199826638</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.960204093138736</v>
       </c>
       <c r="O4">
-        <v>11.92354539012059</v>
+        <v>10.13398608975122</v>
       </c>
       <c r="P4">
-        <v>13.9235900301144</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.95724825994879</v>
+      </c>
+      <c r="R4">
+        <v>13.67790766003956</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.70423861770232</v>
+        <v>10.50304971233861</v>
       </c>
       <c r="C5">
-        <v>7.140573687292156</v>
+        <v>7.46297339935377</v>
       </c>
       <c r="D5">
-        <v>6.377138063582416</v>
+        <v>6.609312732549248</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.1256006910336</v>
+        <v>25.37617479201818</v>
       </c>
       <c r="G5">
-        <v>30.80107597800651</v>
+        <v>29.21504360704599</v>
       </c>
       <c r="H5">
-        <v>3.080593010647387</v>
+        <v>2.999646698742441</v>
       </c>
       <c r="I5">
-        <v>3.453249589870649</v>
+        <v>3.269189439563393</v>
       </c>
       <c r="J5">
-        <v>11.18429717091233</v>
+        <v>11.01538682543516</v>
       </c>
       <c r="K5">
-        <v>17.04470947909329</v>
+        <v>16.25511742686548</v>
       </c>
       <c r="L5">
-        <v>6.856429266265225</v>
+        <v>13.56255500207545</v>
       </c>
       <c r="M5">
-        <v>9.941888983356522</v>
+        <v>10.57978212519962</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.911189764317488</v>
       </c>
       <c r="O5">
-        <v>11.76332872061172</v>
+        <v>9.943859492732129</v>
       </c>
       <c r="P5">
-        <v>13.95788231720667</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.79682619875962</v>
+      </c>
+      <c r="R5">
+        <v>13.7124904769573</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.65836619894125</v>
+        <v>10.46055608076898</v>
       </c>
       <c r="C6">
-        <v>7.127489560750289</v>
+        <v>7.446117833678747</v>
       </c>
       <c r="D6">
-        <v>6.365333252920448</v>
+        <v>6.596757407804415</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.08931404852456</v>
+        <v>25.34352272087082</v>
       </c>
       <c r="G6">
-        <v>30.75048153385125</v>
+        <v>29.17338808992966</v>
       </c>
       <c r="H6">
-        <v>3.09087470009343</v>
+        <v>3.009432666194276</v>
       </c>
       <c r="I6">
-        <v>3.46456543248996</v>
+        <v>3.280307379486594</v>
       </c>
       <c r="J6">
-        <v>11.17874443907994</v>
+        <v>11.00895873288661</v>
       </c>
       <c r="K6">
-        <v>17.03337544645154</v>
+        <v>16.246407487357</v>
       </c>
       <c r="L6">
-        <v>6.847558665284057</v>
+        <v>13.55858720421308</v>
       </c>
       <c r="M6">
-        <v>9.908081115826324</v>
+        <v>10.57314635602488</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.902753028034822</v>
       </c>
       <c r="O6">
-        <v>11.73672291488346</v>
+        <v>9.910817372977213</v>
       </c>
       <c r="P6">
-        <v>13.96201946856496</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.77018086412578</v>
+      </c>
+      <c r="R6">
+        <v>13.71691185949914</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.91291042891233</v>
+        <v>10.69010007076268</v>
       </c>
       <c r="C7">
-        <v>7.304362689696115</v>
+        <v>7.638918648466143</v>
       </c>
       <c r="D7">
-        <v>6.472927281489447</v>
+        <v>6.714539070906232</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.24898444317648</v>
+        <v>25.46276260379077</v>
       </c>
       <c r="G7">
-        <v>30.93660945730667</v>
+        <v>29.37295291062387</v>
       </c>
       <c r="H7">
-        <v>3.022550706137936</v>
+        <v>2.944916549770337</v>
       </c>
       <c r="I7">
-        <v>3.416583930585262</v>
+        <v>3.239540828704865</v>
       </c>
       <c r="J7">
-        <v>11.1881372154746</v>
+        <v>10.9828069817207</v>
       </c>
       <c r="K7">
-        <v>17.04300342024926</v>
+        <v>16.2328969060462</v>
       </c>
       <c r="L7">
-        <v>6.906533697236089</v>
+        <v>13.5194813072723</v>
       </c>
       <c r="M7">
-        <v>10.13068190489583</v>
+        <v>10.57538825144991</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.958758818230626</v>
       </c>
       <c r="O7">
-        <v>11.92193549499691</v>
+        <v>10.12247592081879</v>
       </c>
       <c r="P7">
-        <v>13.91979678118802</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.95388311723317</v>
+      </c>
+      <c r="R7">
+        <v>13.6730247644732</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.98256586860468</v>
+        <v>11.66421891892744</v>
       </c>
       <c r="C8">
-        <v>8.02398261496916</v>
+        <v>8.447316969978553</v>
       </c>
       <c r="D8">
-        <v>6.922707359402494</v>
+        <v>7.196827445239262</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.98177887521693</v>
+        <v>26.05429091888355</v>
       </c>
       <c r="G8">
-        <v>31.81224995686202</v>
+        <v>30.16432356934945</v>
       </c>
       <c r="H8">
-        <v>2.731692891028785</v>
+        <v>2.669239422295897</v>
       </c>
       <c r="I8">
-        <v>3.205542298270633</v>
+        <v>3.056862310580708</v>
       </c>
       <c r="J8">
-        <v>11.24392630803577</v>
+        <v>10.96672606529116</v>
       </c>
       <c r="K8">
-        <v>17.11253267918516</v>
+        <v>16.21528406333571</v>
       </c>
       <c r="L8">
-        <v>7.159366951036191</v>
+        <v>13.38114590646338</v>
       </c>
       <c r="M8">
-        <v>11.06049779595373</v>
+        <v>10.64579228573341</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.19946277401131</v>
       </c>
       <c r="O8">
-        <v>12.70808673114571</v>
+        <v>11.01931254979827</v>
       </c>
       <c r="P8">
-        <v>13.74016207150434</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.73711708888922</v>
+      </c>
+      <c r="R8">
+        <v>13.48958705718042</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.85364364920565</v>
+        <v>13.38226343515001</v>
       </c>
       <c r="C9">
-        <v>9.269974078112607</v>
+        <v>9.88122928696799</v>
       </c>
       <c r="D9">
-        <v>7.725758880835576</v>
+        <v>8.042509117849409</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>28.46011623225606</v>
+        <v>27.31882934839803</v>
       </c>
       <c r="G9">
-        <v>33.62278579607004</v>
+        <v>31.58190803163131</v>
       </c>
       <c r="H9">
-        <v>2.199809154234051</v>
+        <v>2.163947699424711</v>
       </c>
       <c r="I9">
-        <v>2.810684623819861</v>
+        <v>2.71134004497816</v>
       </c>
       <c r="J9">
-        <v>11.38993192515</v>
+        <v>11.10328085464225</v>
       </c>
       <c r="K9">
-        <v>17.31034924671242</v>
+        <v>16.262307540024</v>
       </c>
       <c r="L9">
-        <v>7.625539971567397</v>
+        <v>13.16069875717601</v>
       </c>
       <c r="M9">
-        <v>12.68934107176545</v>
+        <v>10.96504628730989</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.644590873604105</v>
       </c>
       <c r="O9">
-        <v>14.1297730727163</v>
+        <v>12.60976915885862</v>
       </c>
       <c r="P9">
-        <v>13.40359837644969</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.15855887930547</v>
+      </c>
+      <c r="R9">
+        <v>13.15081021332612</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.0538209348593</v>
+        <v>14.46969777823338</v>
       </c>
       <c r="C10">
-        <v>10.08533235769633</v>
+        <v>10.76206362728648</v>
       </c>
       <c r="D10">
-        <v>8.169286963266627</v>
+        <v>8.539837832358133</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.32710576083371</v>
+        <v>27.95026420854977</v>
       </c>
       <c r="G10">
-        <v>34.70978988352996</v>
+        <v>32.79877144568074</v>
       </c>
       <c r="H10">
-        <v>1.869068763785645</v>
+        <v>1.854259010759148</v>
       </c>
       <c r="I10">
-        <v>2.552284121357279</v>
+        <v>2.49169438357601</v>
       </c>
       <c r="J10">
-        <v>11.46583054533839</v>
+        <v>10.93925160708078</v>
       </c>
       <c r="K10">
-        <v>17.39146617045474</v>
+        <v>16.1912167378181</v>
       </c>
       <c r="L10">
-        <v>7.832484408765214</v>
+        <v>12.91162946808074</v>
       </c>
       <c r="M10">
-        <v>13.74297436632209</v>
+        <v>11.18322220670059</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.837737015136724</v>
       </c>
       <c r="O10">
-        <v>14.9474386797149</v>
+        <v>13.61153081560228</v>
       </c>
       <c r="P10">
-        <v>13.14453549364147</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.96691243472142</v>
+      </c>
+      <c r="R10">
+        <v>12.88809022722701</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.43354043279425</v>
+        <v>14.81884044853435</v>
       </c>
       <c r="C11">
-        <v>10.15550650653303</v>
+        <v>10.70630775054512</v>
       </c>
       <c r="D11">
-        <v>7.460390051453192</v>
+        <v>7.873163435344595</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>28.00903632903346</v>
+        <v>26.47951648080501</v>
       </c>
       <c r="G11">
-        <v>33.28399379508635</v>
+        <v>32.23737598713711</v>
       </c>
       <c r="H11">
-        <v>2.857114434983166</v>
+        <v>2.853525754384073</v>
       </c>
       <c r="I11">
-        <v>2.503477091391932</v>
+        <v>2.561165732041731</v>
       </c>
       <c r="J11">
-        <v>11.14271543333154</v>
+        <v>10.2108738299316</v>
       </c>
       <c r="K11">
-        <v>16.80651904189197</v>
+        <v>15.56131875794902</v>
       </c>
       <c r="L11">
-        <v>7.015868995354281</v>
+        <v>12.38010471243855</v>
       </c>
       <c r="M11">
-        <v>14.01529602490873</v>
+        <v>10.79807207970249</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.017685881030146</v>
       </c>
       <c r="O11">
-        <v>14.0305213259392</v>
+        <v>13.8244520000292</v>
       </c>
       <c r="P11">
-        <v>12.91263834947249</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.03098590413964</v>
+      </c>
+      <c r="R11">
+        <v>12.69487219871259</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.53314296270615</v>
+        <v>14.9259797790259</v>
       </c>
       <c r="C12">
-        <v>10.0162866706915</v>
+        <v>10.47594601199007</v>
       </c>
       <c r="D12">
-        <v>6.762209257336038</v>
+        <v>7.180432438178344</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.7393996989721</v>
+        <v>25.19206429234667</v>
       </c>
       <c r="G12">
-        <v>31.90021744438082</v>
+        <v>31.3175310788562</v>
       </c>
       <c r="H12">
-        <v>4.228707903885178</v>
+        <v>4.22728262212379</v>
       </c>
       <c r="I12">
-        <v>2.514349296889236</v>
+        <v>2.568658886715515</v>
       </c>
       <c r="J12">
-        <v>10.86384492771747</v>
+        <v>9.804980475133005</v>
       </c>
       <c r="K12">
-        <v>16.32615534772292</v>
+        <v>15.10781530034207</v>
       </c>
       <c r="L12">
-        <v>6.427834502458962</v>
+        <v>12.03902941496314</v>
       </c>
       <c r="M12">
-        <v>14.03452338236817</v>
+        <v>10.46591266317135</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.428621749490972</v>
       </c>
       <c r="O12">
-        <v>13.07782148044659</v>
+        <v>13.82033064188778</v>
       </c>
       <c r="P12">
-        <v>12.79385516413707</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.06951183916715</v>
+      </c>
+      <c r="R12">
+        <v>12.61549779132867</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.40508599670069</v>
+        <v>14.84405534145715</v>
       </c>
       <c r="C13">
-        <v>9.733737930533415</v>
+        <v>10.14081390946722</v>
       </c>
       <c r="D13">
-        <v>6.026301643225187</v>
+        <v>6.411345917874026</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.37456047290042</v>
+        <v>23.9501120651311</v>
       </c>
       <c r="G13">
-        <v>30.37036722336845</v>
+        <v>29.81152703540213</v>
       </c>
       <c r="H13">
-        <v>5.650066903442051</v>
+        <v>5.647573746533787</v>
       </c>
       <c r="I13">
-        <v>2.524487940596085</v>
+        <v>2.537706723512027</v>
       </c>
       <c r="J13">
-        <v>10.58740642665808</v>
+        <v>9.651210746571925</v>
       </c>
       <c r="K13">
-        <v>15.86369284853672</v>
+        <v>14.74742935518719</v>
       </c>
       <c r="L13">
-        <v>6.012646019186024</v>
+        <v>11.80085758606436</v>
       </c>
       <c r="M13">
-        <v>13.85753329623995</v>
+        <v>10.1481019064613</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.01574081263966</v>
       </c>
       <c r="O13">
-        <v>12.01857207709122</v>
+        <v>13.65749448043759</v>
       </c>
       <c r="P13">
-        <v>12.74762705786426</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.01183519124321</v>
+      </c>
+      <c r="R13">
+        <v>12.60729962411617</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.20657753451674</v>
+        <v>14.69580819690118</v>
       </c>
       <c r="C14">
-        <v>9.473293835066313</v>
+        <v>9.859047291988416</v>
       </c>
       <c r="D14">
-        <v>5.49397200052818</v>
+        <v>5.839074822343434</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.36689819983778</v>
+        <v>23.08843209135616</v>
       </c>
       <c r="G14">
-        <v>29.21417561602557</v>
+        <v>28.48623527675929</v>
       </c>
       <c r="H14">
-        <v>6.659062859089425</v>
+        <v>6.655168347473853</v>
       </c>
       <c r="I14">
-        <v>2.573049230316074</v>
+        <v>2.520736210458609</v>
       </c>
       <c r="J14">
-        <v>10.39352027367053</v>
+        <v>9.638239578632533</v>
       </c>
       <c r="K14">
-        <v>15.5449595288649</v>
+        <v>14.53047186026197</v>
       </c>
       <c r="L14">
-        <v>5.845480325968123</v>
+        <v>11.67190048095809</v>
       </c>
       <c r="M14">
-        <v>13.6420002294223</v>
+        <v>9.929769774543173</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.852328408129768</v>
       </c>
       <c r="O14">
-        <v>11.22020592675126</v>
+        <v>13.46856676032383</v>
       </c>
       <c r="P14">
-        <v>12.74911442393327</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.21887299826381</v>
+      </c>
+      <c r="R14">
+        <v>12.63136744012894</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.10287496732613</v>
+        <v>14.61241675290139</v>
       </c>
       <c r="C15">
-        <v>9.38585880899444</v>
+        <v>9.772995736948589</v>
       </c>
       <c r="D15">
-        <v>5.357106872513307</v>
+        <v>5.68605044610816</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.09389445297413</v>
+        <v>22.8762594516759</v>
       </c>
       <c r="G15">
-        <v>28.88654296380061</v>
+        <v>28.04089538755291</v>
       </c>
       <c r="H15">
-        <v>6.895008549764816</v>
+        <v>6.890386944260017</v>
       </c>
       <c r="I15">
-        <v>2.599969615236349</v>
+        <v>2.54445372202641</v>
       </c>
       <c r="J15">
-        <v>10.34453661647933</v>
+        <v>9.673837108967756</v>
       </c>
       <c r="K15">
-        <v>15.46490723137432</v>
+        <v>14.48838585137105</v>
       </c>
       <c r="L15">
-        <v>5.82047406635713</v>
+        <v>11.65334443579872</v>
       </c>
       <c r="M15">
-        <v>13.54562241097228</v>
+        <v>9.874729849539083</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.829317334374842</v>
       </c>
       <c r="O15">
-        <v>11.00221397634572</v>
+        <v>13.3859644706499</v>
       </c>
       <c r="P15">
-        <v>12.76206481433292</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.00400891951584</v>
+      </c>
+      <c r="R15">
+        <v>12.64846002158392</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.62106377837431</v>
+        <v>14.19923189615564</v>
       </c>
       <c r="C16">
-        <v>9.097805735428684</v>
+        <v>9.536941685803267</v>
       </c>
       <c r="D16">
-        <v>5.280086073531616</v>
+        <v>5.557345471482849</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.94962409227579</v>
+        <v>22.94037462128052</v>
       </c>
       <c r="G16">
-        <v>28.65136868494885</v>
+        <v>27.18896557366012</v>
       </c>
       <c r="H16">
-        <v>6.707767798565325</v>
+        <v>6.698744313433913</v>
       </c>
       <c r="I16">
-        <v>2.708006811508753</v>
+        <v>2.634262264503596</v>
       </c>
       <c r="J16">
-        <v>10.36075270895685</v>
+        <v>10.03776980453718</v>
       </c>
       <c r="K16">
-        <v>15.50979866818494</v>
+        <v>14.63957827672692</v>
       </c>
       <c r="L16">
-        <v>5.798879974235573</v>
+        <v>11.81209401992433</v>
       </c>
       <c r="M16">
-        <v>13.13625742837748</v>
+        <v>9.89981111157922</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.817220363757847</v>
       </c>
       <c r="O16">
-        <v>10.81444708378117</v>
+        <v>13.03787655054162</v>
       </c>
       <c r="P16">
-        <v>12.8753805920187</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.83142246134804</v>
+      </c>
+      <c r="R16">
+        <v>12.75029759173263</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.35314069973178</v>
+        <v>13.95191146214965</v>
       </c>
       <c r="C17">
-        <v>9.019611302003767</v>
+        <v>9.498920258488877</v>
       </c>
       <c r="D17">
-        <v>5.511590442979282</v>
+        <v>5.775175337622055</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.38169517553015</v>
+        <v>23.43465906070617</v>
       </c>
       <c r="G17">
-        <v>29.09789939074954</v>
+        <v>27.34572711462967</v>
       </c>
       <c r="H17">
-        <v>6.000293938928785</v>
+        <v>5.987733118452316</v>
       </c>
       <c r="I17">
-        <v>2.766192276486706</v>
+        <v>2.683507694568712</v>
       </c>
       <c r="J17">
-        <v>10.47641658842562</v>
+        <v>10.2938812713479</v>
       </c>
       <c r="K17">
-        <v>15.71259615043498</v>
+        <v>14.86216428476798</v>
       </c>
       <c r="L17">
-        <v>5.849535836466129</v>
+        <v>12.00374186713049</v>
       </c>
       <c r="M17">
-        <v>12.93560267901962</v>
+        <v>10.0242664723602</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.872087647377625</v>
       </c>
       <c r="O17">
-        <v>11.1083645601233</v>
+        <v>12.86285222556881</v>
       </c>
       <c r="P17">
-        <v>12.96127197678863</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.13237832879837</v>
+      </c>
+      <c r="R17">
+        <v>12.81968604414354</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.25971622907047</v>
+        <v>13.84548717143214</v>
       </c>
       <c r="C18">
-        <v>9.100312801974319</v>
+        <v>9.631451232943652</v>
       </c>
       <c r="D18">
-        <v>6.043248783703054</v>
+        <v>6.313586517618402</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.38094736133182</v>
+        <v>24.41166074324038</v>
       </c>
       <c r="G18">
-        <v>30.21490190838281</v>
+        <v>28.26864997735124</v>
       </c>
       <c r="H18">
-        <v>4.795736225557661</v>
+        <v>4.779296958614514</v>
       </c>
       <c r="I18">
-        <v>2.775302166193329</v>
+        <v>2.688086697128491</v>
       </c>
       <c r="J18">
-        <v>10.69711572670848</v>
+        <v>10.55633455734608</v>
       </c>
       <c r="K18">
-        <v>16.09203768381511</v>
+        <v>15.20554150475074</v>
       </c>
       <c r="L18">
-        <v>6.088396404652788</v>
+        <v>12.27302284348404</v>
       </c>
       <c r="M18">
-        <v>12.90058963993394</v>
+        <v>10.26905281386033</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.110886428797702</v>
       </c>
       <c r="O18">
-        <v>11.85580832805897</v>
+        <v>12.83507985972438</v>
       </c>
       <c r="P18">
-        <v>13.04335298158851</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.88366282254969</v>
+      </c>
+      <c r="R18">
+        <v>12.87749056823264</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.28792027031681</v>
+        <v>13.8386453832222</v>
       </c>
       <c r="C19">
-        <v>9.342017398825741</v>
+        <v>9.937219092078855</v>
       </c>
       <c r="D19">
-        <v>6.796288213172934</v>
+        <v>7.084761017879337</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.71917023553436</v>
+        <v>25.67711108725997</v>
       </c>
       <c r="G19">
-        <v>31.69804206363066</v>
+        <v>29.59302725106775</v>
       </c>
       <c r="H19">
-        <v>3.391179887416706</v>
+        <v>3.369790887353989</v>
       </c>
       <c r="I19">
-        <v>2.762716201345934</v>
+        <v>2.678766239297126</v>
       </c>
       <c r="J19">
-        <v>10.97211659872591</v>
+        <v>10.8198606268441</v>
       </c>
       <c r="K19">
-        <v>16.55595726524751</v>
+        <v>15.5999718368658</v>
       </c>
       <c r="L19">
-        <v>6.611504811763884</v>
+        <v>12.57012675126272</v>
       </c>
       <c r="M19">
-        <v>12.99835603437985</v>
+        <v>10.57351668982671</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.630527610498762</v>
       </c>
       <c r="O19">
-        <v>12.90990715328918</v>
+        <v>12.92912261903502</v>
       </c>
       <c r="P19">
-        <v>13.12462134555301</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.93985683811779</v>
+      </c>
+      <c r="R19">
+        <v>12.92918221675555</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.70286635529097</v>
+        <v>14.16042120499814</v>
       </c>
       <c r="C20">
-        <v>9.938270086096578</v>
+        <v>10.62849323267257</v>
       </c>
       <c r="D20">
-        <v>8.070854624766076</v>
+        <v>8.410491947562267</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.01083966395894</v>
+        <v>27.756356387699</v>
       </c>
       <c r="G20">
-        <v>34.27054067714123</v>
+        <v>32.09731040146103</v>
       </c>
       <c r="H20">
-        <v>1.956161846649604</v>
+        <v>1.93410397943173</v>
       </c>
       <c r="I20">
-        <v>2.652063191367288</v>
+        <v>2.585487159171146</v>
       </c>
       <c r="J20">
-        <v>11.41578623258905</v>
+        <v>11.09442123137362</v>
       </c>
       <c r="K20">
-        <v>17.30090972079619</v>
+        <v>16.176335209956</v>
       </c>
       <c r="L20">
-        <v>7.772015093870854</v>
+        <v>12.95260031935865</v>
       </c>
       <c r="M20">
-        <v>13.46578234583825</v>
+        <v>11.09543510446213</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.781150831082121</v>
       </c>
       <c r="O20">
-        <v>14.73176828359871</v>
+        <v>13.36481022706421</v>
       </c>
       <c r="P20">
-        <v>13.20003181507288</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.75882545269499</v>
+      </c>
+      <c r="R20">
+        <v>12.95253273235496</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.60860398259669</v>
+        <v>14.91783519792058</v>
       </c>
       <c r="C21">
-        <v>10.5815586786101</v>
+        <v>11.17900609645639</v>
       </c>
       <c r="D21">
-        <v>8.558291433029042</v>
+        <v>9.0279355717069</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.98999526066379</v>
+        <v>28.23719502489668</v>
       </c>
       <c r="G21">
-        <v>35.46751285987276</v>
+        <v>34.59250387697151</v>
       </c>
       <c r="H21">
-        <v>1.654088676135853</v>
+        <v>1.65634216672522</v>
       </c>
       <c r="I21">
-        <v>2.569297951562604</v>
+        <v>2.617372795135433</v>
       </c>
       <c r="J21">
-        <v>11.54648483404791</v>
+        <v>10.33219814529508</v>
       </c>
       <c r="K21">
-        <v>17.48916988119518</v>
+        <v>16.07075269370245</v>
       </c>
       <c r="L21">
-        <v>8.103840297381714</v>
+        <v>12.72860356487409</v>
       </c>
       <c r="M21">
-        <v>14.27084009888828</v>
+        <v>11.23524128755522</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.101705693413242</v>
       </c>
       <c r="O21">
-        <v>15.56379081827507</v>
+        <v>14.0441085876491</v>
       </c>
       <c r="P21">
-        <v>13.02720480692186</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.55727377348389</v>
+      </c>
+      <c r="R21">
+        <v>12.74420385953823</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.18349705428439</v>
+        <v>15.39834193879302</v>
       </c>
       <c r="C22">
-        <v>10.94587798308677</v>
+        <v>11.47177326942239</v>
       </c>
       <c r="D22">
-        <v>8.805352277294366</v>
+        <v>9.362456543463763</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.55822242909662</v>
+        <v>28.46612529802898</v>
       </c>
       <c r="G22">
-        <v>36.19347445403734</v>
+        <v>36.27552600946288</v>
       </c>
       <c r="H22">
-        <v>1.642075651062673</v>
+        <v>1.624691458956224</v>
       </c>
       <c r="I22">
-        <v>2.690996610799661</v>
+        <v>2.715029946537078</v>
       </c>
       <c r="J22">
-        <v>11.62520540277695</v>
+        <v>9.822215929431751</v>
       </c>
       <c r="K22">
-        <v>17.60677596977969</v>
+        <v>15.98563457920198</v>
       </c>
       <c r="L22">
-        <v>8.258189180177302</v>
+        <v>12.57282540342523</v>
       </c>
       <c r="M22">
-        <v>14.76739773711743</v>
+        <v>11.32086858694318</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.249719419842767</v>
       </c>
       <c r="O22">
-        <v>16.01504433591696</v>
+        <v>14.45663044694873</v>
       </c>
       <c r="P22">
-        <v>12.91228658263552</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.98514535302334</v>
+      </c>
+      <c r="R22">
+        <v>12.60654442955925</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.89525381379793</v>
+        <v>15.16734844303794</v>
       </c>
       <c r="C23">
-        <v>10.72990680830725</v>
+        <v>11.3144422818479</v>
       </c>
       <c r="D23">
-        <v>8.666829015068632</v>
+        <v>9.165722170678608</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.28484660238925</v>
+        <v>28.41416536849966</v>
       </c>
       <c r="G23">
-        <v>35.85906778829283</v>
+        <v>35.25636587839841</v>
       </c>
       <c r="H23">
-        <v>1.570409669663204</v>
+        <v>1.579064338473635</v>
       </c>
       <c r="I23">
-        <v>2.621108543682807</v>
+        <v>2.657401603776088</v>
       </c>
       <c r="J23">
-        <v>11.59320375246773</v>
+        <v>10.18661778039964</v>
       </c>
       <c r="K23">
-        <v>17.56812089422269</v>
+        <v>16.07501486374985</v>
       </c>
       <c r="L23">
-        <v>8.176812733924621</v>
+        <v>12.68585699076734</v>
       </c>
       <c r="M23">
-        <v>14.50703706766637</v>
+        <v>11.31125803523899</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.171579363734738</v>
       </c>
       <c r="O23">
-        <v>15.77517260957374</v>
+        <v>14.2524161415058</v>
       </c>
       <c r="P23">
-        <v>12.977922901901</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.76137362893969</v>
+      </c>
+      <c r="R23">
+        <v>12.68595728659501</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.72449399559965</v>
+        <v>14.17861427990919</v>
       </c>
       <c r="C24">
-        <v>9.920263422816264</v>
+        <v>10.61715392368154</v>
       </c>
       <c r="D24">
-        <v>8.136721453240382</v>
+        <v>8.477500666106678</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.1959642604131</v>
+        <v>27.93544644485824</v>
       </c>
       <c r="G24">
-        <v>34.50542633300244</v>
+        <v>32.30550723478088</v>
       </c>
       <c r="H24">
-        <v>1.932881199122984</v>
+        <v>1.910884228567547</v>
       </c>
       <c r="I24">
-        <v>2.631006691104747</v>
+        <v>2.560794168928545</v>
       </c>
       <c r="J24">
-        <v>11.46139360691526</v>
+        <v>11.14315200457049</v>
       </c>
       <c r="K24">
-        <v>17.39024528556194</v>
+        <v>16.25693557154388</v>
       </c>
       <c r="L24">
-        <v>7.859797839543307</v>
+        <v>13.01392110359365</v>
       </c>
       <c r="M24">
-        <v>13.47341242078561</v>
+        <v>11.15656181914457</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.868621586354855</v>
       </c>
       <c r="O24">
-        <v>14.83634906221992</v>
+        <v>13.3726953172978</v>
       </c>
       <c r="P24">
-        <v>13.22090650708159</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.86381441566609</v>
+      </c>
+      <c r="R24">
+        <v>12.96799902178365</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.34628309238635</v>
+        <v>12.91997355036482</v>
       </c>
       <c r="C25">
-        <v>8.986248535255555</v>
+        <v>9.562938596163743</v>
       </c>
       <c r="D25">
-        <v>7.52869571885904</v>
+        <v>7.826780239392862</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.01331013047746</v>
+        <v>26.9551490093666</v>
       </c>
       <c r="G25">
-        <v>33.04640639100791</v>
+        <v>31.01579024861526</v>
       </c>
       <c r="H25">
-        <v>2.340851969811592</v>
+        <v>2.297133476845628</v>
       </c>
       <c r="I25">
-        <v>2.931319618796197</v>
+        <v>2.821098574084167</v>
       </c>
       <c r="J25">
-        <v>11.33199094651269</v>
+        <v>11.10804860235432</v>
       </c>
       <c r="K25">
-        <v>17.21587020648816</v>
+        <v>16.22448332127857</v>
       </c>
       <c r="L25">
-        <v>7.50175743120373</v>
+        <v>13.20298797533411</v>
       </c>
       <c r="M25">
-        <v>12.26533181554371</v>
+        <v>10.84670385325485</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.526424630403537</v>
       </c>
       <c r="O25">
-        <v>13.75943118401929</v>
+        <v>12.20316402080936</v>
       </c>
       <c r="P25">
-        <v>13.48676926987505</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>13.79057702508422</v>
+      </c>
+      <c r="R25">
+        <v>13.23829184833336</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
